--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENTER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Dropbox\GitHub\HarrixDataOfOptimizationTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>MHL_TestFunction_Ackley</t>
-  </si>
-  <si>
-    <t>MHL_TestFunction_AckleyII</t>
   </si>
   <si>
     <t>MHL_TestFunction_ParaboloidOfRevolution</t>
@@ -150,28 +147,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -495,7 +471,7 @@
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -767,7 +743,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -778,23 +754,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="37" width="2.7109375" customWidth="1"/>
+    <col min="3" max="30" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -831,19 +807,10 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-      <c r="AE1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-    </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -929,35 +896,14 @@
       <c r="AD2" s="1">
         <v>30</v>
       </c>
-      <c r="AE2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:XX3)</f>
-        <v>35</v>
+        <f>SUM(C3:XQ3)</f>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1043,34 +989,13 @@
       <c r="AD3">
         <v>1</v>
       </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B9" si="0">SUM(C4:XX4)</f>
+        <f t="shared" ref="B4:B9" si="0">SUM(C4:XQ4)</f>
         <v>28</v>
       </c>
       <c r="C4">
@@ -1094,6 +1019,27 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -1136,29 +1082,8 @@
       <c r="AD4">
         <v>1</v>
       </c>
-      <c r="AE4">
-        <v>1</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,13 +1113,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1280,29 +1205,8 @@
       <c r="AD6">
         <v>1</v>
       </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1328,6 +1232,24 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -1364,26 +1286,8 @@
       <c r="AC7">
         <v>1</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1412,6 +1316,27 @@
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
       <c r="Q8">
         <v>1</v>
       </c>
@@ -1454,35 +1379,14 @@
       <c r="AD8">
         <v>1</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AH8">
-        <v>1</v>
-      </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
-      <c r="AK8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1568,43 +1472,16 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="AE1:AK1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C1 Q1 X1 AE1 AL1:XFD1 A2:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A1:C1 J1 Q1 X1 AE1:XFD1 A2:XFD1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Итого</t>
+  </si>
+  <si>
+    <t>MHL_TestFunction_AdditivePotential</t>
+  </si>
+  <si>
+    <t>MHL_TestFunction_MultiplicativePotential</t>
   </si>
 </sst>
 </file>
@@ -754,23 +760,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="30" width="2.7109375" customWidth="1"/>
+    <col min="3" max="32" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -807,8 +813,14 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
-    </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AE1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -896,8 +908,14 @@
       <c r="AD2" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1113,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1380,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -766,7 +766,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
+      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:XQ3)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1005,6 +1005,12 @@
         <v>1</v>
       </c>
       <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
         <v>1</v>
       </c>
     </row>
@@ -1137,7 +1143,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1221,6 +1227,12 @@
         <v>1</v>
       </c>
       <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
         <v>1</v>
       </c>
     </row>
@@ -1230,7 +1242,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1302,6 +1314,12 @@
         <v>1</v>
       </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
         <v>1</v>
       </c>
     </row>
@@ -1311,7 +1329,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1395,6 +1413,12 @@
         <v>1</v>
       </c>
       <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
         <v>1</v>
       </c>
     </row>
@@ -1404,7 +1428,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1488,6 +1512,12 @@
         <v>1</v>
       </c>
       <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Бинарная оптимизация" sheetId="1" r:id="rId1"/>
@@ -446,11 +446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,37 +555,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B8" si="0">SUM(C4:XX4)</f>
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -762,11 +732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AF11" sqref="AF11"/>
+      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,91 +990,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B9" si="0">SUM(C4:XQ4)</f>
-        <v>28</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>1</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Бинарная оптимизация" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>MHL_TestFunction_MultiplicativePotential</t>
+  </si>
+  <si>
+    <t>_MHL_StandartRealGeneticAlgorithm - Стандартный генератор случайных чисел</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,21 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -446,11 +463,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:L4"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +736,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -730,13 +747,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF9"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AA13" sqref="AA13"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,8 +1006,14 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B9" si="0">SUM(C4:XQ4)</f>
-        <v>0</v>
+        <f t="shared" ref="B4:B10" si="0">SUM(C4:XQ4)</f>
+        <v>2</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -1025,110 +1048,20 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
-      <c r="Z6">
-        <v>1</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6">
-        <v>1</v>
-      </c>
-      <c r="AE6">
-        <v>1</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1148,6 +1081,9 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7">
         <v>1</v>
       </c>
@@ -1166,6 +1102,9 @@
       <c r="O7">
         <v>1</v>
       </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -1184,6 +1123,9 @@
       <c r="V7">
         <v>1</v>
       </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
       <c r="X7">
         <v>1</v>
       </c>
@@ -1200,6 +1142,9 @@
         <v>1</v>
       </c>
       <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
         <v>1</v>
       </c>
       <c r="AE7">
@@ -1211,11 +1156,11 @@
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1235,9 +1180,6 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
       <c r="J8">
         <v>1</v>
       </c>
@@ -1256,9 +1198,6 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
       <c r="Q8">
         <v>1</v>
       </c>
@@ -1277,9 +1216,6 @@
       <c r="V8">
         <v>1</v>
       </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
       <c r="X8">
         <v>1</v>
       </c>
@@ -1296,9 +1232,6 @@
         <v>1</v>
       </c>
       <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
         <v>1</v>
       </c>
       <c r="AE8">
@@ -1310,7 +1243,7 @@
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -1404,6 +1337,105 @@
         <v>1</v>
       </c>
       <c r="AF9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
+      </c>
+      <c r="AF10">
         <v>1</v>
       </c>
     </row>
@@ -1415,7 +1447,7 @@
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1 J1 Q1 X1 AE1:XFD1 A2:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Бинарная оптимизация" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>_MHL_StandartRealGeneticAlgorithm - Стандартный генератор случайных чисел</t>
+  </si>
+  <si>
+    <t>_MHL_StandartBinaryGeneticAlgorithm - Проверка на других компьютерах</t>
+  </si>
+  <si>
+    <t>_MHL_StandartBinaryGeneticAlgorithm - Стандартный генератор случайных чисел</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,14 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -461,18 +474,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="4" bestFit="1" customWidth="1"/>
@@ -571,91 +584,61 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B8" si="0">SUM(C4:XX4)</f>
-        <v>0</v>
+        <f t="shared" ref="B4:B10" si="0">SUM(C4:XX4)</f>
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -694,7 +677,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -728,6 +711,84 @@
         <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
@@ -736,7 +797,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -749,16 +810,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="32" width="2.7109375" customWidth="1"/>
   </cols>
@@ -1447,7 +1508,7 @@
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1 J1 Q1 X1 AE1:XFD1 A2:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Бинарная оптимизация" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm - Стандартный генератор случайных чисел</t>
+  </si>
+  <si>
+    <t>MHL_BinaryGeneticAlgorithmTournamentSelectionWithReturn</t>
+  </si>
+  <si>
+    <t>MHL_RealGeneticAlgorithmTournamentSelectionWithReturn</t>
   </si>
 </sst>
 </file>
@@ -162,14 +168,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -474,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,7 +583,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B10" si="0">SUM(C4:XX4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:XX4)</f>
         <v>10</v>
       </c>
       <c r="C4">
@@ -790,6 +789,15 @@
       </c>
       <c r="L10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +805,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -808,13 +816,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF10"/>
+  <dimension ref="A1:AF11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1075,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B10" si="0">SUM(C4:XQ4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:XQ4)</f>
         <v>2</v>
       </c>
       <c r="AE4">
@@ -1498,6 +1506,15 @@
       </c>
       <c r="AF10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1508,7 +1525,7 @@
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1 J1 Q1 X1 AE1:XFD1 A2:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>MHL_RealGeneticAlgorithmTournamentSelectionWithReturn</t>
+  </si>
+  <si>
+    <t>MHL_TestFunction_ReverseGriewank</t>
   </si>
 </sst>
 </file>
@@ -168,21 +171,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -805,7 +794,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -816,23 +805,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="2.7109375" customWidth="1"/>
+    <col min="3" max="33" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -875,8 +864,11 @@
       <c r="AF1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AG1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -970,8 +962,11 @@
       <c r="AF2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1115,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1124,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,7 +1520,7 @@
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1 J1 Q1 X1 AE1:XFD1 A2:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -171,7 +171,35 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -468,7 +496,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomRight" sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,8 +821,8 @@
   <mergeCells count="1">
     <mergeCell ref="C1:L1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C3:XFD1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -811,7 +839,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AG3" sqref="AG3"/>
+      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +1000,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:XQ3)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1062,6 +1090,9 @@
         <v>1</v>
       </c>
       <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
         <v>1</v>
       </c>
     </row>
@@ -1071,12 +1102,15 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:XQ4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4">
         <v>1</v>
       </c>
       <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
         <v>1</v>
       </c>
     </row>
@@ -1125,7 +1159,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1215,6 +1249,9 @@
         <v>1</v>
       </c>
       <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
         <v>1</v>
       </c>
     </row>
@@ -1224,7 +1261,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1302,6 +1339,9 @@
         <v>1</v>
       </c>
       <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
         <v>1</v>
       </c>
     </row>
@@ -1311,7 +1351,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1401,6 +1441,9 @@
         <v>1</v>
       </c>
       <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
         <v>1</v>
       </c>
     </row>
@@ -1410,7 +1453,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1500,6 +1543,9 @@
         <v>1</v>
       </c>
       <c r="AF10">
+        <v>1</v>
+      </c>
+      <c r="AG10">
         <v>1</v>
       </c>
     </row>
@@ -1509,7 +1555,10 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1519,8 +1568,8 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:C1 J1 Q1 X1 AE1:XFD1 A2:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="C3:XFD1048576">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -171,35 +171,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -496,7 +468,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" sqref="A1:XFD2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,7 +786,37 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +824,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:XFD1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -839,7 +841,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="X12" sqref="X12"/>
+      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1104,91 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:XQ4)</f>
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
       <c r="AE4">
         <v>1</v>
@@ -1569,7 +1655,7 @@
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -468,7 +468,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,6 +480,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
@@ -494,8 +497,9 @@
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>18</v>
+      <c r="B2" s="1">
+        <f>SUM(B3:B11)</f>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -621,7 +625,37 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -841,7 +875,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AE4" sqref="AE4"/>
+      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,6 +886,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
@@ -899,8 +936,9 @@
       </c>
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>18</v>
+      <c r="B2" s="1">
+        <f>SUM(B3:B11)</f>
+        <v>208</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1236,7 +1274,55 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
@@ -1641,6 +1727,12 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
         <v>1</v>
       </c>
       <c r="AG11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -45,9 +45,6 @@
     <t>MHL_BinaryMonteCarloAlgorithm</t>
   </si>
   <si>
-    <t>MHL_TestFunction_SumVector</t>
-  </si>
-  <si>
     <t>_MHL_StandartRealGeneticAlgorithm</t>
   </si>
   <si>
@@ -69,27 +66,9 @@
     <t>MHL_RealMonteCarloAlgorithm</t>
   </si>
   <si>
-    <t>MHL_TestFunction_Ackley</t>
-  </si>
-  <si>
-    <t>MHL_TestFunction_ParaboloidOfRevolution</t>
-  </si>
-  <si>
-    <t>MHL_TestFunction_Rastrigin</t>
-  </si>
-  <si>
-    <t>MHL_TestFunction_Rosenbrock</t>
-  </si>
-  <si>
     <t>Итого</t>
   </si>
   <si>
-    <t>MHL_TestFunction_AdditivePotential</t>
-  </si>
-  <si>
-    <t>MHL_TestFunction_MultiplicativePotential</t>
-  </si>
-  <si>
     <t>_MHL_StandartRealGeneticAlgorithm - Стандартный генератор случайных чисел</t>
   </si>
   <si>
@@ -105,14 +84,41 @@
     <t>MHL_RealGeneticAlgorithmTournamentSelectionWithReturn</t>
   </si>
   <si>
-    <t>MHL_TestFunction_ReverseGriewank</t>
+    <t>Ackley</t>
+  </si>
+  <si>
+    <t>ParaboloidOfRevolution</t>
+  </si>
+  <si>
+    <t>Rastrigin</t>
+  </si>
+  <si>
+    <t>Rosenbrock</t>
+  </si>
+  <si>
+    <t>AdditivePotential</t>
+  </si>
+  <si>
+    <t>MultiplicativePotential</t>
+  </si>
+  <si>
+    <t>ReverseGriewank</t>
+  </si>
+  <si>
+    <t>HyperEllipsoid</t>
+  </si>
+  <si>
+    <t>SumVector</t>
+  </si>
+  <si>
+    <t>RotatedHyperEllipsoid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +139,15 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,11 +175,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,7 +487,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,20 +500,20 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
@@ -612,7 +631,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
@@ -621,7 +640,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -816,7 +835,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -869,73 +888,91 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="33" width="2.7109375" customWidth="1"/>
+    <col min="3" max="47" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="2" t="s">
+    <row r="1" spans="1:47" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+    </row>
+    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>208</v>
@@ -1033,10 +1070,52 @@
       <c r="AG2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:XQ3)</f>
@@ -1136,9 +1215,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:XQ4)</f>
@@ -1238,9 +1317,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
@@ -1268,9 +1347,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
@@ -1325,9 +1404,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
@@ -1427,9 +1506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
@@ -1517,9 +1596,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
@@ -1619,9 +1698,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
@@ -1721,9 +1800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
@@ -1740,7 +1819,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -894,7 +894,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AA6" sqref="AA6"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
     <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1797,6 +1797,48 @@
         <v>1</v>
       </c>
       <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
+      </c>
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>1</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
+        <v>1</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -894,7 +894,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="AI8" sqref="AI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
     <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1397,10 +1397,55 @@
       <c r="P6">
         <v>1</v>
       </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
       <c r="AE6">
         <v>1</v>
       </c>
       <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -894,7 +894,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AI8" sqref="AI8"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +975,7 @@
     <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1446,6 +1446,48 @@
         <v>1</v>
       </c>
       <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
+      </c>
+      <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>1</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
         <v>1</v>
       </c>
     </row>
@@ -1893,7 +1935,91 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>RotatedHyperEllipsoid</t>
+  </si>
+  <si>
+    <t>Multiextremal</t>
+  </si>
+  <si>
+    <t>Wave</t>
   </si>
 </sst>
 </file>
@@ -888,23 +894,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomRight" activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="47" width="2.7109375" customWidth="1"/>
+    <col min="3" max="49" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -971,8 +977,14 @@
       <c r="AS1" s="5"/>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
-    </row>
-    <row r="2" spans="1:47" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AV1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>279</v>
@@ -1112,8 +1124,14 @@
       <c r="AU2" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AV2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1317,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1347,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1491,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1593,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1785,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Wave</t>
+  </si>
+  <si>
+    <t>Multiextremal2</t>
   </si>
 </sst>
 </file>
@@ -894,23 +897,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AT9" sqref="AT9"/>
+      <selection pane="bottomRight" activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="49" width="2.7109375" customWidth="1"/>
+    <col min="3" max="50" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:50" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -983,8 +986,11 @@
       <c r="AW1" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>279</v>
@@ -1130,8 +1136,11 @@
       <c r="AW2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1335,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1803,7 +1812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1947,7 +1956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Multiextremal2</t>
+  </si>
+  <si>
+    <t>Sombrero</t>
   </si>
 </sst>
 </file>
@@ -897,23 +900,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AQ12" sqref="AQ12"/>
+      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="50" width="2.7109375" customWidth="1"/>
+    <col min="3" max="51" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -989,8 +992,11 @@
       <c r="AX1" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AY1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>279</v>
@@ -1139,8 +1145,11 @@
       <c r="AX2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY2" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1374,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1710,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1956,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -906,7 +906,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AM14" sqref="AM14"/>
+      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
     <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:XQ3)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1248,6 +1248,48 @@
         <v>1</v>
       </c>
       <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
         <v>1</v>
       </c>
     </row>
@@ -1257,7 +1299,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:XQ4)</f>
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1350,6 +1392,48 @@
         <v>1</v>
       </c>
       <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AR4">
+        <v>1</v>
+      </c>
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -903,10 +903,10 @@
   <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AH11" sqref="AH11"/>
+      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,7 +999,7 @@
     <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:XQ3)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1290,6 +1290,9 @@
         <v>1</v>
       </c>
       <c r="AU3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
         <v>1</v>
       </c>
     </row>
@@ -1617,7 +1620,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1710,6 +1713,9 @@
         <v>1</v>
       </c>
       <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
         <v>1</v>
       </c>
     </row>
@@ -1719,7 +1725,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1800,6 +1806,9 @@
         <v>1</v>
       </c>
       <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
         <v>1</v>
       </c>
     </row>
@@ -1809,7 +1818,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1902,6 +1911,9 @@
         <v>1</v>
       </c>
       <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
         <v>1</v>
       </c>
     </row>
@@ -1911,7 +1923,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2046,6 +2058,9 @@
         <v>1</v>
       </c>
       <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
         <v>1</v>
       </c>
     </row>
@@ -2055,7 +2070,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2148,6 +2163,9 @@
         <v>1</v>
       </c>
       <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -906,7 +906,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AW9" sqref="AW9"/>
+      <selection pane="bottomRight" activeCell="AV11" sqref="AV11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Sombrero</t>
+  </si>
+  <si>
+    <t>Himmelblau</t>
   </si>
 </sst>
 </file>
@@ -900,23 +903,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY11"/>
+  <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AV11" sqref="AV11"/>
+      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="51" width="2.7109375" customWidth="1"/>
+    <col min="3" max="52" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -995,8 +998,11 @@
       <c r="AY1" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="AZ1" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>313</v>
@@ -1148,8 +1154,11 @@
       <c r="AY2" s="1">
         <v>2</v>
       </c>
+      <c r="AZ2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1719,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1812,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2064,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -906,10 +906,10 @@
   <dimension ref="A1:AZ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="W15" sqref="W15"/>
+      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
     <row r="2" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2069,7 +2069,19 @@
       <c r="AU10">
         <v>1</v>
       </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
       <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Himmelblau</t>
+  </si>
+  <si>
+    <t>Katnikov</t>
   </si>
 </sst>
 </file>
@@ -903,23 +906,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ11"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Y22" sqref="Y22"/>
+      <selection pane="bottomRight" activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="52" width="2.7109375" customWidth="1"/>
+    <col min="3" max="53" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:53" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1001,8 +1004,11 @@
       <c r="AZ1" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="BA1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>317</v>
@@ -1157,8 +1163,11 @@
       <c r="AZ2" s="1">
         <v>2</v>
       </c>
+      <c r="BA2" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1449,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1479,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1623,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1728,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2085,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -909,10 +909,10 @@
   <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BA10" sqref="BA10"/>
+      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,50 +962,50 @@
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
-      <c r="AE1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
+      <c r="AL1" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
-      <c r="AO1" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
+      <c r="AS1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="AV1" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AW1" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AX1" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AY1" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AZ1" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="BA1" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1101,61 +1101,61 @@
         <v>2</v>
       </c>
       <c r="AF2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AL2" s="1">
         <v>2</v>
       </c>
-      <c r="AG2" s="1">
+      <c r="AM2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV2" s="1">
         <v>2</v>
       </c>
-      <c r="AH2" s="1">
+      <c r="AW2" s="1">
         <v>2</v>
       </c>
-      <c r="AI2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AM2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO2" s="1">
+      <c r="AX2" s="1">
         <v>2</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>5</v>
-      </c>
-      <c r="AS2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>20</v>
-      </c>
-      <c r="AU2" s="1">
-        <v>30</v>
-      </c>
-      <c r="AV2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AW2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="1">
-        <v>1</v>
       </c>
       <c r="AY2" s="1">
         <v>2</v>
@@ -1172,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:XQ3)</f>
+        <f>SUM(C3:XN3)</f>
         <v>46</v>
       </c>
       <c r="C3">
@@ -1301,16 +1301,16 @@
       <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
       <c r="AT3">
         <v>1</v>
       </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
         <v>1</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:XQ4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:XN4)</f>
         <v>45</v>
       </c>
       <c r="C4">
@@ -1448,13 +1448,13 @@
       <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
         <v>1</v>
       </c>
     </row>
@@ -1622,13 +1622,13 @@
       <c r="AR6">
         <v>1</v>
       </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
         <v>1</v>
       </c>
     </row>
@@ -1724,16 +1724,16 @@
       <c r="AD7">
         <v>1</v>
       </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
         <v>1</v>
       </c>
     </row>
@@ -1817,16 +1817,16 @@
       <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AE8">
-        <v>1</v>
-      </c>
-      <c r="AF8">
-        <v>1</v>
-      </c>
-      <c r="AG8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
         <v>1</v>
       </c>
     </row>
@@ -1922,16 +1922,16 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
         <v>1</v>
       </c>
     </row>
@@ -2084,13 +2084,13 @@
       <c r="AW10">
         <v>1</v>
       </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
       <c r="AY10">
         <v>1</v>
       </c>
       <c r="AZ10">
+        <v>1</v>
+      </c>
+      <c r="BA10">
         <v>1</v>
       </c>
     </row>
@@ -2186,23 +2186,23 @@
       <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>1</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AL1:AR1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -912,7 +912,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AP16" sqref="AP16"/>
+      <selection pane="bottomRight" activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
     <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1722,6 +1722,27 @@
         <v>1</v>
       </c>
       <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
         <v>1</v>
       </c>
       <c r="AT7">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -208,7 +208,84 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -895,7 +972,7 @@
     <mergeCell ref="C1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -909,10 +986,10 @@
   <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AL16" sqref="AL16"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,7 +1013,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -945,7 +1022,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -954,7 +1031,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -963,7 +1040,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -981,31 +1058,31 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="BA1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1140,13 +1217,13 @@
         <v>30</v>
       </c>
       <c r="AS2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV2" s="1">
         <v>2</v>
@@ -1158,13 +1235,13 @@
         <v>2</v>
       </c>
       <c r="AY2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.25">
@@ -1172,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:XN3)</f>
+        <f>SUM(C3:XX3)</f>
         <v>46</v>
       </c>
       <c r="C3">
@@ -1301,13 +1378,13 @@
       <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3">
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AV3">
+        <v>1</v>
+      </c>
+      <c r="AW3">
         <v>1</v>
       </c>
       <c r="BA3">
@@ -1319,7 +1396,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:XN4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:XX4)</f>
         <v>45</v>
       </c>
       <c r="C4">
@@ -1448,13 +1525,13 @@
       <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
         <v>1</v>
       </c>
     </row>
@@ -1622,13 +1699,13 @@
       <c r="AR6">
         <v>1</v>
       </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BA6">
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
         <v>1</v>
       </c>
     </row>
@@ -1745,13 +1822,13 @@
       <c r="AK7">
         <v>1</v>
       </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
         <v>1</v>
       </c>
       <c r="BA7">
@@ -1784,24 +1861,6 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="Q8">
         <v>1</v>
       </c>
@@ -1838,13 +1897,31 @@
       <c r="AC8">
         <v>1</v>
       </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8">
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
+      </c>
+      <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
         <v>1</v>
       </c>
       <c r="BA8">
@@ -1880,27 +1957,6 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -1943,13 +1999,34 @@
       <c r="AD9">
         <v>1</v>
       </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9">
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AV9">
+        <v>1</v>
+      </c>
+      <c r="AW9">
         <v>1</v>
       </c>
       <c r="BA9">
@@ -2096,13 +2173,13 @@
       <c r="AT10">
         <v>1</v>
       </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
       <c r="AV10">
         <v>1</v>
       </c>
       <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
         <v>1</v>
       </c>
       <c r="AY10">
@@ -2144,27 +2221,6 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -2207,13 +2263,34 @@
       <c r="AD11">
         <v>1</v>
       </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="AZ11">
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
         <v>1</v>
       </c>
       <c r="BA11">
@@ -2229,8 +2306,63 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:XFD1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="BB3:XFD1048576">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:I1048576">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:P1048576">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q3:AK1048576">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3:AR1048576">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AS3:AS1048576">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT3:AU1048576">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV3:AW1048576">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX3:AX1048576">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AY3:AY1048576">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ3:AZ1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA3:BA1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -986,10 +986,10 @@
   <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="AT14" sqref="AT14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
     <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1823,6 +1823,12 @@
         <v>1</v>
       </c>
       <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
         <v>1</v>
       </c>
       <c r="AV7">
@@ -1841,7 +1847,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1916,6 +1922,12 @@
         <v>1</v>
       </c>
       <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
         <v>1</v>
       </c>
       <c r="AV8">
@@ -1934,7 +1946,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2021,6 +2033,12 @@
         <v>1</v>
       </c>
       <c r="AS9">
+        <v>1</v>
+      </c>
+      <c r="AT9">
+        <v>1</v>
+      </c>
+      <c r="AU9">
         <v>1</v>
       </c>
       <c r="AV9">
@@ -2039,7 +2057,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2171,6 +2189,9 @@
         <v>1</v>
       </c>
       <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
         <v>1</v>
       </c>
       <c r="AV10">
@@ -2198,7 +2219,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2285,6 +2306,12 @@
         <v>1</v>
       </c>
       <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
         <v>1</v>
       </c>
       <c r="AV11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Katnikov</t>
+  </si>
+  <si>
+    <t>Multiextremal3</t>
+  </si>
+  <si>
+    <t>Multiextremal4</t>
   </si>
 </sst>
 </file>
@@ -983,23 +989,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA11"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AT14" sqref="AT14"/>
+      <selection pane="bottomRight" activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="53" width="2.7109375" customWidth="1"/>
+    <col min="3" max="55" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:55" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1067,25 +1073,31 @@
         <v>34</v>
       </c>
       <c r="AV1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>333</v>
@@ -1235,21 +1247,27 @@
         <v>2</v>
       </c>
       <c r="AY2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA2" s="1">
         <v>1</v>
       </c>
+      <c r="BB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:XX3)</f>
+        <f>SUM(C3:XZ3)</f>
         <v>46</v>
       </c>
       <c r="C3">
@@ -1381,22 +1399,22 @@
       <c r="AS3">
         <v>1</v>
       </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="BA3">
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:XX4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:XZ4)</f>
         <v>45</v>
       </c>
       <c r="C4">
@@ -1528,14 +1546,14 @@
       <c r="AS4">
         <v>1</v>
       </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1702,14 +1720,14 @@
       <c r="AS6">
         <v>1</v>
       </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1831,17 +1849,17 @@
       <c r="AU7">
         <v>1</v>
       </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1930,17 +1948,17 @@
       <c r="AU8">
         <v>1</v>
       </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="BA8">
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2041,17 +2059,17 @@
       <c r="AU9">
         <v>1</v>
       </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="BA9">
+      <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="BC9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2194,12 +2212,6 @@
       <c r="AU10">
         <v>1</v>
       </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
       <c r="AX10">
         <v>1</v>
       </c>
@@ -2212,8 +2224,14 @@
       <c r="BA10">
         <v>1</v>
       </c>
+      <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2314,13 +2332,13 @@
       <c r="AU11">
         <v>1</v>
       </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
         <v>1</v>
       </c>
     </row>
@@ -2333,7 +2351,7 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BB3:XFD1048576">
+  <conditionalFormatting sqref="BD3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2363,32 +2381,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT3:AU1048576">
+  <conditionalFormatting sqref="AT3:AW1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV3:AW1048576">
+  <conditionalFormatting sqref="AX3:AY1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX3:AX1048576">
+  <conditionalFormatting sqref="AZ3:AZ1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AY3:AY1048576">
+  <conditionalFormatting sqref="BA3:BA1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:AZ1048576">
+  <conditionalFormatting sqref="BB3:BB1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA3:BA1048576">
+  <conditionalFormatting sqref="BC3:BC1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Multiextremal4</t>
+  </si>
+  <si>
+    <t>StepFunction</t>
   </si>
 </sst>
 </file>
@@ -989,23 +992,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC11"/>
+  <dimension ref="A1:BJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AV2" sqref="AV2"/>
+      <selection pane="bottomRight" activeCell="AT8" sqref="AT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="55" width="2.7109375" customWidth="1"/>
+    <col min="3" max="62" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1063,41 +1066,50 @@
       <c r="AP1" s="5"/>
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
-      <c r="AS1" s="3" t="s">
+      <c r="AS1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>333</v>
@@ -1232,42 +1244,63 @@
         <v>2</v>
       </c>
       <c r="AT2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AX2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="AY2" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AZ2" s="1">
         <v>2</v>
       </c>
       <c r="BA2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:XZ3)</f>
+        <f>SUM(C3:YG3)</f>
         <v>46</v>
       </c>
       <c r="C3">
@@ -1396,25 +1429,25 @@
       <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="BC3">
+      <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BJ3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:XZ4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:YG4)</f>
         <v>45</v>
       </c>
       <c r="C4">
@@ -1543,17 +1576,17 @@
       <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1583,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1717,17 +1750,17 @@
       <c r="AR6">
         <v>1</v>
       </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1840,26 +1873,26 @@
       <c r="AK7">
         <v>1</v>
       </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1939,26 +1972,26 @@
       <c r="AJ8">
         <v>1</v>
       </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="BC8">
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2050,26 +2083,26 @@
       <c r="AK9">
         <v>1</v>
       </c>
-      <c r="AS9">
-        <v>1</v>
-      </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AU9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="BC9">
+      <c r="AZ9">
+        <v>1</v>
+      </c>
+      <c r="BA9">
+        <v>1</v>
+      </c>
+      <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>1</v>
+      </c>
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BJ9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2203,21 +2236,6 @@
       <c r="AR10">
         <v>1</v>
       </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
       <c r="AZ10">
         <v>1</v>
       </c>
@@ -2227,11 +2245,26 @@
       <c r="BB10">
         <v>1</v>
       </c>
-      <c r="BC10">
+      <c r="BE10">
+        <v>1</v>
+      </c>
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
+        <v>1</v>
+      </c>
+      <c r="BJ10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2323,27 +2356,28 @@
       <c r="AK11">
         <v>1</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AS1:AY1"/>
     <mergeCell ref="AE1:AK1"/>
     <mergeCell ref="AL1:AR1"/>
     <mergeCell ref="C1:I1"/>
@@ -2351,7 +2385,7 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BD3:XFD1048576">
+  <conditionalFormatting sqref="BK3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2371,42 +2405,42 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AR1048576">
+  <conditionalFormatting sqref="AL3:AY1048576">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS3:AS1048576">
+  <conditionalFormatting sqref="AZ3:AZ1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT3:AW1048576">
+  <conditionalFormatting sqref="BA3:BD1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX3:AY1048576">
+  <conditionalFormatting sqref="BE3:BF1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:AZ1048576">
+  <conditionalFormatting sqref="BG3:BG1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA3:BA1048576">
+  <conditionalFormatting sqref="BH3:BH1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB3:BB1048576">
+  <conditionalFormatting sqref="BI3:BI1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC3:BC1048576">
+  <conditionalFormatting sqref="BJ3:BJ1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -998,7 +998,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AT8" sqref="AT8"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:YG3)</f>
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1432,10 +1432,25 @@
       <c r="AZ3">
         <v>1</v>
       </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>1</v>
+      </c>
+      <c r="BC3">
+        <v>1</v>
+      </c>
       <c r="BE3">
         <v>1</v>
       </c>
       <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
         <v>1</v>
       </c>
       <c r="BJ3">
@@ -1766,7 +1781,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1871,6 +1886,27 @@
         <v>1</v>
       </c>
       <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
         <v>1</v>
       </c>
       <c r="AZ7">
@@ -2270,7 +2306,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2293,6 +2329,27 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -2354,6 +2411,27 @@
         <v>1</v>
       </c>
       <c r="AK11">
+        <v>1</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
+        <v>1</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AR11">
         <v>1</v>
       </c>
       <c r="AZ11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -995,10 +995,10 @@
   <dimension ref="A1:BJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:YG3)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1441,10 +1441,16 @@
       <c r="BC3">
         <v>1</v>
       </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
       <c r="BE3">
         <v>1</v>
       </c>
       <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BG3">
         <v>1</v>
       </c>
       <c r="BH3">
@@ -1781,7 +1787,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1918,10 +1924,16 @@
       <c r="BB7">
         <v>1</v>
       </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
       <c r="BE7">
         <v>1</v>
       </c>
       <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
         <v>1</v>
       </c>
       <c r="BJ7">
@@ -1934,7 +1946,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2017,10 +2029,16 @@
       <c r="BB8">
         <v>1</v>
       </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
       <c r="BE8">
         <v>1</v>
       </c>
       <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BG8">
         <v>1</v>
       </c>
       <c r="BJ8">
@@ -2033,7 +2051,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2126,6 +2144,9 @@
         <v>1</v>
       </c>
       <c r="BB9">
+        <v>1</v>
+      </c>
+      <c r="BD9">
         <v>1</v>
       </c>
       <c r="BE9">
@@ -2144,7 +2165,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2272,6 +2293,27 @@
       <c r="AR10">
         <v>1</v>
       </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
       <c r="AZ10">
         <v>1</v>
       </c>
@@ -2279,6 +2321,12 @@
         <v>1</v>
       </c>
       <c r="BB10">
+        <v>1</v>
+      </c>
+      <c r="BC10">
+        <v>1</v>
+      </c>
+      <c r="BD10">
         <v>1</v>
       </c>
       <c r="BE10">
@@ -2306,7 +2354,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2441,6 +2489,9 @@
         <v>1</v>
       </c>
       <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
         <v>1</v>
       </c>
       <c r="BE11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -998,7 +998,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BG9" sqref="BG9"/>
+      <selection pane="bottomRight" activeCell="BI6" sqref="BI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1787,7 +1787,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1934,6 +1934,9 @@
         <v>1</v>
       </c>
       <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
         <v>1</v>
       </c>
       <c r="BJ7">
@@ -1946,7 +1949,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2029,6 +2032,9 @@
       <c r="BB8">
         <v>1</v>
       </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
       <c r="BD8">
         <v>1</v>
       </c>
@@ -2039,6 +2045,12 @@
         <v>1</v>
       </c>
       <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
         <v>1</v>
       </c>
       <c r="BJ8">
@@ -2051,7 +2063,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2153,6 +2165,9 @@
         <v>1</v>
       </c>
       <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9">
@@ -2354,7 +2369,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2498,6 +2513,9 @@
         <v>1</v>
       </c>
       <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -998,7 +998,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BI6" sqref="BI6"/>
+      <selection pane="bottomRight" activeCell="BF7" sqref="BF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:YG4)</f>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1600,10 +1600,34 @@
       <c r="AZ4">
         <v>1</v>
       </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
       <c r="BE4">
         <v>1</v>
       </c>
       <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -998,7 +998,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BF7" sqref="BF7"/>
+      <selection pane="bottomRight" activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2530,6 +2530,9 @@
       <c r="BB11">
         <v>1</v>
       </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
       <c r="BD11">
         <v>1</v>
       </c>
@@ -2537,6 +2540,12 @@
         <v>1</v>
       </c>
       <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
         <v>1</v>
       </c>
       <c r="BI11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -998,7 +998,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AX18" sqref="AX18"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1948,6 +1948,9 @@
       <c r="BB7">
         <v>1</v>
       </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
       <c r="BD7">
         <v>1</v>
       </c>
@@ -1958,6 +1961,9 @@
         <v>1</v>
       </c>
       <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
         <v>1</v>
       </c>
       <c r="BI7">
@@ -2087,7 +2093,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2182,6 +2188,9 @@
       <c r="BB9">
         <v>1</v>
       </c>
+      <c r="BC9">
+        <v>1</v>
+      </c>
       <c r="BD9">
         <v>1</v>
       </c>
@@ -2189,6 +2198,12 @@
         <v>1</v>
       </c>
       <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
         <v>1</v>
       </c>
       <c r="BI9">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -998,7 +998,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="BA10" sqref="BA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1798,10 +1798,34 @@
       <c r="AZ6">
         <v>1</v>
       </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
       <c r="BE6">
         <v>1</v>
       </c>
       <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -995,10 +995,10 @@
   <dimension ref="A1:BJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BA10" sqref="BA10"/>
+      <selection pane="bottomRight" activeCell="AZ7" sqref="AZ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1961,6 +1961,27 @@
         <v>1</v>
       </c>
       <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
         <v>1</v>
       </c>
       <c r="AZ7">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>StepFunction</t>
+  </si>
+  <si>
+    <t>Rana</t>
+  </si>
+  <si>
+    <t>ShekelsFoxholes</t>
   </si>
 </sst>
 </file>
@@ -992,23 +998,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ11"/>
+  <dimension ref="A1:BL11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AZ7" sqref="AZ7"/>
+      <selection pane="bottomRight" activeCell="BH3" sqref="BH3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="62" width="2.7109375" customWidth="1"/>
+    <col min="3" max="64" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1094,22 +1100,28 @@
         <v>24</v>
       </c>
       <c r="BF1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BG1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BI1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:62" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>413</v>
@@ -1286,21 +1298,27 @@
         <v>2</v>
       </c>
       <c r="BH2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ2" s="1">
         <v>1</v>
       </c>
+      <c r="BK2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:YG3)</f>
+        <f>SUM(C3:YI3)</f>
         <v>53</v>
       </c>
       <c r="C3">
@@ -1429,6 +1447,27 @@
       <c r="AR3">
         <v>1</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
       <c r="AZ3">
         <v>1</v>
       </c>
@@ -1447,28 +1486,28 @@
       <c r="BE3">
         <v>1</v>
       </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
       <c r="BG3">
         <v>1</v>
       </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
       <c r="BI3">
         <v>1</v>
       </c>
       <c r="BJ3">
         <v>1</v>
       </c>
+      <c r="BK3">
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:YG4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:YI4)</f>
         <v>53</v>
       </c>
       <c r="C4">
@@ -1615,23 +1654,23 @@
       <c r="BE4">
         <v>1</v>
       </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
       <c r="BG4">
         <v>1</v>
       </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
       <c r="BI4">
         <v>1</v>
       </c>
       <c r="BJ4">
         <v>1</v>
       </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1813,23 +1852,23 @@
       <c r="BE6">
         <v>1</v>
       </c>
-      <c r="BF6">
-        <v>1</v>
-      </c>
       <c r="BG6">
         <v>1</v>
       </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
       <c r="BI6">
         <v>1</v>
       </c>
       <c r="BJ6">
         <v>1</v>
       </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2002,23 +2041,23 @@
       <c r="BE7">
         <v>1</v>
       </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
       <c r="BG7">
         <v>1</v>
       </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
       <c r="BI7">
         <v>1</v>
       </c>
       <c r="BJ7">
         <v>1</v>
       </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2044,6 +2083,27 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
       <c r="Q8">
         <v>1</v>
       </c>
@@ -2098,6 +2158,27 @@
       <c r="AJ8">
         <v>1</v>
       </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
       <c r="AZ8">
         <v>1</v>
       </c>
@@ -2116,23 +2197,23 @@
       <c r="BE8">
         <v>1</v>
       </c>
-      <c r="BF8">
-        <v>1</v>
-      </c>
       <c r="BG8">
         <v>1</v>
       </c>
-      <c r="BH8">
-        <v>1</v>
-      </c>
       <c r="BI8">
         <v>1</v>
       </c>
       <c r="BJ8">
         <v>1</v>
       </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2161,6 +2242,27 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -2224,6 +2326,27 @@
       <c r="AK9">
         <v>1</v>
       </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
       <c r="AZ9">
         <v>1</v>
       </c>
@@ -2242,23 +2365,23 @@
       <c r="BE9">
         <v>1</v>
       </c>
-      <c r="BF9">
-        <v>1</v>
-      </c>
       <c r="BG9">
         <v>1</v>
       </c>
-      <c r="BH9">
-        <v>1</v>
-      </c>
       <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9">
         <v>1</v>
       </c>
+      <c r="BK9">
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2431,23 +2554,23 @@
       <c r="BE10">
         <v>1</v>
       </c>
-      <c r="BF10">
-        <v>1</v>
-      </c>
       <c r="BG10">
         <v>1</v>
       </c>
-      <c r="BH10">
-        <v>1</v>
-      </c>
       <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10">
         <v>1</v>
       </c>
+      <c r="BK10">
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2581,6 +2704,27 @@
       <c r="AR11">
         <v>1</v>
       </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
       <c r="AZ11">
         <v>1</v>
       </c>
@@ -2599,19 +2743,19 @@
       <c r="BE11">
         <v>1</v>
       </c>
-      <c r="BF11">
-        <v>1</v>
-      </c>
       <c r="BG11">
         <v>1</v>
       </c>
-      <c r="BH11">
-        <v>1</v>
-      </c>
       <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
         <v>1</v>
       </c>
     </row>
@@ -2625,7 +2769,7 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BK3:XFD1048576">
+  <conditionalFormatting sqref="BM3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2660,27 +2804,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BF1048576">
+  <conditionalFormatting sqref="BE3:BH1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG3:BG1048576">
+  <conditionalFormatting sqref="BI3:BI1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:BH1048576">
+  <conditionalFormatting sqref="BJ3:BJ1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI3:BI1048576">
+  <conditionalFormatting sqref="BK3:BK1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BJ1048576">
+  <conditionalFormatting sqref="BL3:BL1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>ShekelsFoxholes</t>
+  </si>
+  <si>
+    <t>EggHolder</t>
   </si>
 </sst>
 </file>
@@ -998,23 +1001,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL11"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BH3" sqref="BH3"/>
+      <selection pane="bottomRight" activeCell="BA14" sqref="BA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="64" width="2.7109375" customWidth="1"/>
+    <col min="3" max="65" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:65" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1085,43 +1088,46 @@
         <v>23</v>
       </c>
       <c r="BA1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BB1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>413</v>
@@ -1304,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK2" s="1">
         <v>1</v>
@@ -1312,13 +1318,16 @@
       <c r="BL2" s="1">
         <v>1</v>
       </c>
+      <c r="BM2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:YI3)</f>
+        <f>SUM(C3:YJ3)</f>
         <v>53</v>
       </c>
       <c r="C3">
@@ -1471,9 +1480,6 @@
       <c r="AZ3">
         <v>1</v>
       </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
       <c r="BB3">
         <v>1</v>
       </c>
@@ -1486,10 +1492,10 @@
       <c r="BE3">
         <v>1</v>
       </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BI3">
+      <c r="BF3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
         <v>1</v>
       </c>
       <c r="BJ3">
@@ -1501,13 +1507,16 @@
       <c r="BL3">
         <v>1</v>
       </c>
+      <c r="BM3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:YI4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:YJ4)</f>
         <v>53</v>
       </c>
       <c r="C4">
@@ -1639,9 +1648,6 @@
       <c r="AZ4">
         <v>1</v>
       </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
       <c r="BB4">
         <v>1</v>
       </c>
@@ -1654,10 +1660,10 @@
       <c r="BE4">
         <v>1</v>
       </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BI4">
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
         <v>1</v>
       </c>
       <c r="BJ4">
@@ -1669,8 +1675,11 @@
       <c r="BL4">
         <v>1</v>
       </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1700,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1837,9 +1846,6 @@
       <c r="AZ6">
         <v>1</v>
       </c>
-      <c r="BA6">
-        <v>1</v>
-      </c>
       <c r="BB6">
         <v>1</v>
       </c>
@@ -1852,10 +1858,10 @@
       <c r="BE6">
         <v>1</v>
       </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
+      <c r="BF6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
         <v>1</v>
       </c>
       <c r="BJ6">
@@ -1867,8 +1873,11 @@
       <c r="BL6">
         <v>1</v>
       </c>
+      <c r="BM6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2026,9 +2035,6 @@
       <c r="AZ7">
         <v>1</v>
       </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
       <c r="BB7">
         <v>1</v>
       </c>
@@ -2041,10 +2047,10 @@
       <c r="BE7">
         <v>1</v>
       </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
         <v>1</v>
       </c>
       <c r="BJ7">
@@ -2056,8 +2062,11 @@
       <c r="BL7">
         <v>1</v>
       </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2182,9 +2191,6 @@
       <c r="AZ8">
         <v>1</v>
       </c>
-      <c r="BA8">
-        <v>1</v>
-      </c>
       <c r="BB8">
         <v>1</v>
       </c>
@@ -2197,10 +2203,10 @@
       <c r="BE8">
         <v>1</v>
       </c>
-      <c r="BG8">
-        <v>1</v>
-      </c>
-      <c r="BI8">
+      <c r="BF8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
         <v>1</v>
       </c>
       <c r="BJ8">
@@ -2212,8 +2218,11 @@
       <c r="BL8">
         <v>1</v>
       </c>
+      <c r="BM8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2350,9 +2359,6 @@
       <c r="AZ9">
         <v>1</v>
       </c>
-      <c r="BA9">
-        <v>1</v>
-      </c>
       <c r="BB9">
         <v>1</v>
       </c>
@@ -2365,10 +2371,10 @@
       <c r="BE9">
         <v>1</v>
       </c>
-      <c r="BG9">
-        <v>1</v>
-      </c>
-      <c r="BI9">
+      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="BH9">
         <v>1</v>
       </c>
       <c r="BJ9">
@@ -2380,8 +2386,11 @@
       <c r="BL9">
         <v>1</v>
       </c>
+      <c r="BM9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2539,9 +2548,6 @@
       <c r="AZ10">
         <v>1</v>
       </c>
-      <c r="BA10">
-        <v>1</v>
-      </c>
       <c r="BB10">
         <v>1</v>
       </c>
@@ -2554,10 +2560,10 @@
       <c r="BE10">
         <v>1</v>
       </c>
-      <c r="BG10">
-        <v>1</v>
-      </c>
-      <c r="BI10">
+      <c r="BF10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
         <v>1</v>
       </c>
       <c r="BJ10">
@@ -2569,8 +2575,11 @@
       <c r="BL10">
         <v>1</v>
       </c>
+      <c r="BM10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2728,9 +2737,6 @@
       <c r="AZ11">
         <v>1</v>
       </c>
-      <c r="BA11">
-        <v>1</v>
-      </c>
       <c r="BB11">
         <v>1</v>
       </c>
@@ -2743,10 +2749,10 @@
       <c r="BE11">
         <v>1</v>
       </c>
-      <c r="BG11">
-        <v>1</v>
-      </c>
-      <c r="BI11">
+      <c r="BF11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
         <v>1</v>
       </c>
       <c r="BJ11">
@@ -2756,6 +2762,9 @@
         <v>1</v>
       </c>
       <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
         <v>1</v>
       </c>
     </row>
@@ -2769,7 +2778,7 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BM3:XFD1048576">
+  <conditionalFormatting sqref="BN3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2794,37 +2803,37 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:AZ1048576">
+  <conditionalFormatting sqref="AZ3:BA1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA3:BD1048576">
+  <conditionalFormatting sqref="BB3:BE1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE3:BH1048576">
+  <conditionalFormatting sqref="BF3:BI1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI3:BI1048576">
+  <conditionalFormatting sqref="BJ3:BJ1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BJ1048576">
+  <conditionalFormatting sqref="BK3:BK1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK3:BK1048576">
+  <conditionalFormatting sqref="BL3:BL1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL3:BL1048576">
+  <conditionalFormatting sqref="BM3:BM1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1004,10 +1004,10 @@
   <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BA14" sqref="BA14"/>
+      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,7 +1130,7 @@
     <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:YJ3)</f>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1495,7 +1495,13 @@
       <c r="BF3">
         <v>1</v>
       </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
       <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
         <v>1</v>
       </c>
       <c r="BJ3">
@@ -1883,7 +1889,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2050,7 +2056,13 @@
       <c r="BF7">
         <v>1</v>
       </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
       <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
         <v>1</v>
       </c>
       <c r="BJ7">
@@ -2072,7 +2084,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2206,7 +2218,13 @@
       <c r="BF8">
         <v>1</v>
       </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
       <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
         <v>1</v>
       </c>
       <c r="BJ8">
@@ -2228,7 +2246,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2374,7 +2392,13 @@
       <c r="BF9">
         <v>1</v>
       </c>
+      <c r="BG9">
+        <v>1</v>
+      </c>
       <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9">
@@ -2396,7 +2420,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2563,7 +2587,13 @@
       <c r="BF10">
         <v>1</v>
       </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
       <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10">
@@ -2585,7 +2615,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2752,7 +2782,13 @@
       <c r="BF11">
         <v>1</v>
       </c>
+      <c r="BG11">
+        <v>1</v>
+      </c>
       <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>EggHolder</t>
+  </si>
+  <si>
+    <t>RastriginWithChange</t>
+  </si>
+  <si>
+    <t>RastriginWithTurning</t>
   </si>
 </sst>
 </file>
@@ -1001,23 +1007,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM11"/>
+  <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BK12" sqref="BK12"/>
+      <selection pane="bottomRight" activeCell="AY16" sqref="AY16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="65" width="2.7109375" customWidth="1"/>
+    <col min="3" max="67" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:67" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1109,25 +1115,31 @@
         <v>38</v>
       </c>
       <c r="BH1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>425</v>
@@ -1313,21 +1325,27 @@
         <v>2</v>
       </c>
       <c r="BK2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BM2" s="1">
         <v>1</v>
       </c>
+      <c r="BN2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:YJ3)</f>
+        <f>SUM(C3:YL3)</f>
         <v>55</v>
       </c>
       <c r="C3">
@@ -1498,12 +1516,6 @@
       <c r="BG3">
         <v>1</v>
       </c>
-      <c r="BH3">
-        <v>1</v>
-      </c>
-      <c r="BI3">
-        <v>1</v>
-      </c>
       <c r="BJ3">
         <v>1</v>
       </c>
@@ -1516,13 +1528,19 @@
       <c r="BM3">
         <v>1</v>
       </c>
+      <c r="BN3">
+        <v>1</v>
+      </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:YJ4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:YL4)</f>
         <v>53</v>
       </c>
       <c r="C4">
@@ -1669,23 +1687,23 @@
       <c r="BF4">
         <v>1</v>
       </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
       <c r="BJ4">
         <v>1</v>
       </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
       <c r="BL4">
         <v>1</v>
       </c>
       <c r="BM4">
         <v>1</v>
       </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1715,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1867,23 +1885,23 @@
       <c r="BF6">
         <v>1</v>
       </c>
-      <c r="BH6">
-        <v>1</v>
-      </c>
       <c r="BJ6">
         <v>1</v>
       </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
       <c r="BL6">
         <v>1</v>
       </c>
       <c r="BM6">
         <v>1</v>
       </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BO6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2059,12 +2077,6 @@
       <c r="BG7">
         <v>1</v>
       </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
       <c r="BJ7">
         <v>1</v>
       </c>
@@ -2077,8 +2089,14 @@
       <c r="BM7">
         <v>1</v>
       </c>
+      <c r="BN7">
+        <v>1</v>
+      </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2221,12 +2239,6 @@
       <c r="BG8">
         <v>1</v>
       </c>
-      <c r="BH8">
-        <v>1</v>
-      </c>
-      <c r="BI8">
-        <v>1</v>
-      </c>
       <c r="BJ8">
         <v>1</v>
       </c>
@@ -2239,8 +2251,14 @@
       <c r="BM8">
         <v>1</v>
       </c>
+      <c r="BN8">
+        <v>1</v>
+      </c>
+      <c r="BO8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2395,12 +2413,6 @@
       <c r="BG9">
         <v>1</v>
       </c>
-      <c r="BH9">
-        <v>1</v>
-      </c>
-      <c r="BI9">
-        <v>1</v>
-      </c>
       <c r="BJ9">
         <v>1</v>
       </c>
@@ -2413,8 +2425,14 @@
       <c r="BM9">
         <v>1</v>
       </c>
+      <c r="BN9">
+        <v>1</v>
+      </c>
+      <c r="BO9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2590,12 +2608,6 @@
       <c r="BG10">
         <v>1</v>
       </c>
-      <c r="BH10">
-        <v>1</v>
-      </c>
-      <c r="BI10">
-        <v>1</v>
-      </c>
       <c r="BJ10">
         <v>1</v>
       </c>
@@ -2608,8 +2620,14 @@
       <c r="BM10">
         <v>1</v>
       </c>
+      <c r="BN10">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2785,12 +2803,6 @@
       <c r="BG11">
         <v>1</v>
       </c>
-      <c r="BH11">
-        <v>1</v>
-      </c>
-      <c r="BI11">
-        <v>1</v>
-      </c>
       <c r="BJ11">
         <v>1</v>
       </c>
@@ -2801,6 +2813,12 @@
         <v>1</v>
       </c>
       <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>1</v>
+      </c>
+      <c r="BO11">
         <v>1</v>
       </c>
     </row>
@@ -2814,7 +2832,7 @@
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BN3:XFD1048576">
+  <conditionalFormatting sqref="BP3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2849,27 +2867,27 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:BI1048576">
+  <conditionalFormatting sqref="BF3:BK1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ3:BJ1048576">
+  <conditionalFormatting sqref="BL3:BL1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK3:BK1048576">
+  <conditionalFormatting sqref="BM3:BM1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL3:BL1048576">
+  <conditionalFormatting sqref="BN3:BN1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM3:BM1048576">
+  <conditionalFormatting sqref="BO3:BO1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY16" sqref="AY16"/>
+      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
     <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:YL3)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1496,6 +1496,9 @@
         <v>0</v>
       </c>
       <c r="AZ3">
+        <v>1</v>
+      </c>
+      <c r="BA3">
         <v>1</v>
       </c>
       <c r="BB3">
@@ -2102,7 +2105,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2221,6 +2224,9 @@
       <c r="AZ8">
         <v>1</v>
       </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
       <c r="BB8">
         <v>1</v>
       </c>
@@ -2237,6 +2243,12 @@
         <v>1</v>
       </c>
       <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
         <v>1</v>
       </c>
       <c r="BJ8">
@@ -2264,7 +2276,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2411,6 +2423,9 @@
         <v>1</v>
       </c>
       <c r="BG9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
         <v>1</v>
       </c>
       <c r="BJ9">
@@ -2438,7 +2453,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2590,6 +2605,9 @@
       <c r="AZ10">
         <v>1</v>
       </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
       <c r="BB10">
         <v>1</v>
       </c>
@@ -2606,6 +2624,12 @@
         <v>1</v>
       </c>
       <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>1</v>
+      </c>
+      <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10">
@@ -2633,7 +2657,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2783,6 +2807,9 @@
         <v>0</v>
       </c>
       <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
         <v>1</v>
       </c>
       <c r="BB11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1013,7 +1013,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AG10" sqref="AG10"/>
+      <selection pane="bottomRight" activeCell="AZ3" sqref="AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
     <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:YL3)</f>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1475,25 +1475,25 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
         <v>1</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2201,25 +2201,22 @@
         <v>1</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ8">
         <v>1</v>
@@ -2402,6 +2399,27 @@
         <v>0</v>
       </c>
       <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1010,10 +1010,10 @@
   <dimension ref="A1:BO11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AZ3" sqref="AZ3"/>
+      <selection pane="bottomRight" activeCell="AY9" sqref="AY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1142,7 +1142,7 @@
     <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1672,6 +1672,27 @@
       <c r="AR4">
         <v>1</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
       <c r="AZ4">
         <v>1</v>
       </c>
@@ -2218,6 +2239,27 @@
       <c r="AQ8">
         <v>1</v>
       </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
       <c r="AZ8">
         <v>1</v>
       </c>
@@ -2273,7 +2315,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2297,25 +2339,25 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -2675,7 +2717,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2804,25 +2846,25 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>RastriginWithTurning</t>
+  </si>
+  <si>
+    <t>Schwefel</t>
   </si>
 </sst>
 </file>
@@ -1007,23 +1010,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO11"/>
+  <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY9" sqref="AY9"/>
+      <selection pane="bottomRight" activeCell="AU14" sqref="AU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="67" width="2.7109375" customWidth="1"/>
+    <col min="3" max="74" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:74" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1082,7 +1085,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -1090,56 +1093,65 @@
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
-      <c r="AZ1" s="3" t="s">
+      <c r="AZ1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="5"/>
+      <c r="BB1" s="5"/>
+      <c r="BC1" s="5"/>
+      <c r="BD1" s="5"/>
+      <c r="BE1" s="5"/>
+      <c r="BF1" s="5"/>
+      <c r="BG1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>461</v>
@@ -1295,22 +1307,22 @@
         <v>2</v>
       </c>
       <c r="BA2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BD2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BE2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="BF2" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="BG2" s="1">
         <v>2</v>
@@ -1331,21 +1343,42 @@
         <v>2</v>
       </c>
       <c r="BM2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BN2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:YL3)</f>
+        <f>SUM(C3:YS3)</f>
         <v>63</v>
       </c>
       <c r="C3">
@@ -1474,27 +1507,6 @@
       <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
       <c r="AZ3">
         <v>1</v>
       </c>
@@ -1519,6 +1531,12 @@
       <c r="BG3">
         <v>1</v>
       </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>1</v>
+      </c>
       <c r="BJ3">
         <v>1</v>
       </c>
@@ -1534,16 +1552,31 @@
       <c r="BN3">
         <v>1</v>
       </c>
-      <c r="BO3">
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>1</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>1</v>
+      </c>
+      <c r="BU3">
+        <v>1</v>
+      </c>
+      <c r="BV3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:YL4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:YS4)</f>
         <v>53</v>
       </c>
       <c r="C4">
@@ -1672,62 +1705,62 @@
       <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>0</v>
-      </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
       <c r="AZ4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
         <v>1</v>
       </c>
       <c r="BJ4">
         <v>1</v>
       </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
       <c r="BL4">
         <v>1</v>
       </c>
       <c r="BM4">
         <v>1</v>
       </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
+      <c r="BQ4">
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
+      </c>
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BV4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1757,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1891,41 +1924,41 @@
       <c r="AR6">
         <v>1</v>
       </c>
-      <c r="AZ6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BC6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-      <c r="BE6">
-        <v>1</v>
-      </c>
-      <c r="BF6">
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
         <v>1</v>
       </c>
       <c r="BJ6">
         <v>1</v>
       </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
       <c r="BL6">
         <v>1</v>
       </c>
       <c r="BM6">
         <v>1</v>
       </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6">
+      <c r="BQ6">
+        <v>1</v>
+      </c>
+      <c r="BS6">
+        <v>1</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BV6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2059,30 +2092,12 @@
       <c r="AR7">
         <v>1</v>
       </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
       <c r="AZ7">
         <v>1</v>
       </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
       <c r="BB7">
         <v>1</v>
       </c>
@@ -2101,6 +2116,9 @@
       <c r="BG7">
         <v>1</v>
       </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
       <c r="BJ7">
         <v>1</v>
       </c>
@@ -2116,11 +2134,26 @@
       <c r="BN7">
         <v>1</v>
       </c>
-      <c r="BO7">
+      <c r="BQ7">
+        <v>1</v>
+      </c>
+      <c r="BR7">
+        <v>1</v>
+      </c>
+      <c r="BS7">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>1</v>
+      </c>
+      <c r="BU7">
+        <v>1</v>
+      </c>
+      <c r="BV7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2239,47 +2272,26 @@
       <c r="AQ8">
         <v>1</v>
       </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
       <c r="AZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -2308,8 +2320,29 @@
       <c r="BO8">
         <v>1</v>
       </c>
+      <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
+        <v>1</v>
+      </c>
+      <c r="BR8">
+        <v>1</v>
+      </c>
+      <c r="BS8">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>1</v>
+      </c>
+      <c r="BU8">
+        <v>1</v>
+      </c>
+      <c r="BV8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2443,44 +2476,26 @@
       <c r="AR9">
         <v>0</v>
       </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
       <c r="AZ9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
       </c>
       <c r="BB9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2503,11 +2518,29 @@
       <c r="BN9">
         <v>1</v>
       </c>
-      <c r="BO9">
+      <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
+        <v>1</v>
+      </c>
+      <c r="BR9">
+        <v>1</v>
+      </c>
+      <c r="BS9">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9">
+        <v>1</v>
+      </c>
+      <c r="BV9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2641,27 +2674,6 @@
       <c r="AR10">
         <v>1</v>
       </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
       <c r="AZ10">
         <v>1</v>
       </c>
@@ -2710,8 +2722,29 @@
       <c r="BO10">
         <v>1</v>
       </c>
+      <c r="BP10">
+        <v>1</v>
+      </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
+      <c r="BR10">
+        <v>1</v>
+      </c>
+      <c r="BS10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10">
+        <v>1</v>
+      </c>
+      <c r="BV10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2845,27 +2878,6 @@
       <c r="AR11">
         <v>1</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
       <c r="AZ11">
         <v>1</v>
       </c>
@@ -2890,6 +2902,12 @@
       <c r="BG11">
         <v>1</v>
       </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
       <c r="BJ11">
         <v>1</v>
       </c>
@@ -2905,21 +2923,37 @@
       <c r="BN11">
         <v>1</v>
       </c>
-      <c r="BO11">
+      <c r="BQ11">
+        <v>1</v>
+      </c>
+      <c r="BR11">
+        <v>1</v>
+      </c>
+      <c r="BS11">
+        <v>1</v>
+      </c>
+      <c r="BT11">
+        <v>1</v>
+      </c>
+      <c r="BU11">
+        <v>1</v>
+      </c>
+      <c r="BV11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="AS1:AY1"/>
+  <mergeCells count="8">
+    <mergeCell ref="AZ1:BF1"/>
     <mergeCell ref="AE1:AK1"/>
     <mergeCell ref="AL1:AR1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
+    <mergeCell ref="AS1:AY1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BP3:XFD1048576">
+  <conditionalFormatting sqref="BW3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2939,42 +2973,42 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:AY1048576">
+  <conditionalFormatting sqref="AL3:BF1048576">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:BA1048576">
+  <conditionalFormatting sqref="BG3:BH1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB3:BE1048576">
+  <conditionalFormatting sqref="BI3:BL1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF3:BK1048576">
+  <conditionalFormatting sqref="BM3:BR1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL3:BL1048576">
+  <conditionalFormatting sqref="BS3:BS1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM3:BM1048576">
+  <conditionalFormatting sqref="BT3:BT1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN3:BN1048576">
+  <conditionalFormatting sqref="BU3:BU1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BO3:BO1048576">
+  <conditionalFormatting sqref="BV3:BV1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1016,7 +1016,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AU14" sqref="AU14"/>
+      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
     <row r="2" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2672,6 +2672,27 @@
         <v>1</v>
       </c>
       <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
         <v>1</v>
       </c>
       <c r="AZ10">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1013,10 +1013,10 @@
   <dimension ref="A1:BV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
+      <selection pane="bottomRight" activeCell="BG14" sqref="BG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,7 @@
     <row r="2" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1507,6 +1507,27 @@
       <c r="AR3">
         <v>1</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
       <c r="AZ3">
         <v>1</v>
       </c>
@@ -1577,7 +1598,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:YS4)</f>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1706,25 +1727,25 @@
         <v>1</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG4">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>Schwefel</t>
+  </si>
+  <si>
+    <t>Griewangk</t>
   </si>
 </sst>
 </file>
@@ -1010,23 +1013,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BV11"/>
+  <dimension ref="A1:CC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BG14" sqref="BG14"/>
+      <selection pane="bottomRight" activeCell="AY14" sqref="AY14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="74" width="2.7109375" customWidth="1"/>
+    <col min="3" max="81" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:81" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1043,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1049,7 +1052,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1058,7 +1061,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -1067,7 +1070,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1076,7 +1079,7 @@
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
@@ -1085,7 +1088,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -1094,7 +1097,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
@@ -1102,56 +1105,65 @@
       <c r="BD1" s="5"/>
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
-      <c r="BG1" s="3" t="s">
+      <c r="BG1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH1" s="5"/>
+      <c r="BI1" s="5"/>
+      <c r="BJ1" s="5"/>
+      <c r="BK1" s="5"/>
+      <c r="BL1" s="5"/>
+      <c r="BM1" s="5"/>
+      <c r="BN1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>475</v>
@@ -1328,22 +1340,22 @@
         <v>2</v>
       </c>
       <c r="BH2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BK2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BL2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="BM2" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="BN2" s="1">
         <v>2</v>
@@ -1364,21 +1376,42 @@
         <v>2</v>
       </c>
       <c r="BT2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BV2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>2</v>
+      </c>
+      <c r="BZ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:YS3)</f>
+        <f>SUM(C3:YZ3)</f>
         <v>63</v>
       </c>
       <c r="C3">
@@ -1402,27 +1435,6 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
       <c r="Q3">
         <v>1</v>
       </c>
@@ -1508,46 +1520,46 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1573,6 +1585,12 @@
       <c r="BN3">
         <v>1</v>
       </c>
+      <c r="BO3">
+        <v>1</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
       <c r="BQ3">
         <v>1</v>
       </c>
@@ -1588,16 +1606,31 @@
       <c r="BU3">
         <v>1</v>
       </c>
-      <c r="BV3">
+      <c r="BX3">
+        <v>1</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:YS4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:YZ4)</f>
         <v>60</v>
       </c>
       <c r="C4">
@@ -1621,27 +1654,6 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
       <c r="Q4">
         <v>1</v>
       </c>
@@ -1726,30 +1738,33 @@
       <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
+      <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
         <v>1</v>
       </c>
       <c r="BG4">
         <v>1</v>
       </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
       <c r="BI4">
         <v>1</v>
       </c>
@@ -1765,23 +1780,41 @@
       <c r="BM4">
         <v>1</v>
       </c>
+      <c r="BN4">
+        <v>1</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
       <c r="BQ4">
         <v>1</v>
       </c>
+      <c r="BR4">
+        <v>1</v>
+      </c>
       <c r="BS4">
         <v>1</v>
       </c>
       <c r="BT4">
         <v>1</v>
       </c>
-      <c r="BU4">
-        <v>1</v>
-      </c>
-      <c r="BV4">
+      <c r="BX4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1840,27 +1873,6 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
       <c r="Q6">
         <v>1</v>
       </c>
@@ -1945,41 +1957,62 @@
       <c r="AR6">
         <v>1</v>
       </c>
-      <c r="BG6">
-        <v>1</v>
-      </c>
-      <c r="BI6">
-        <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6">
-        <v>1</v>
-      </c>
-      <c r="BM6">
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>1</v>
+      </c>
+      <c r="AV6">
+        <v>1</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="BN6">
+        <v>1</v>
+      </c>
+      <c r="BP6">
         <v>1</v>
       </c>
       <c r="BQ6">
         <v>1</v>
       </c>
+      <c r="BR6">
+        <v>1</v>
+      </c>
       <c r="BS6">
         <v>1</v>
       </c>
       <c r="BT6">
         <v>1</v>
       </c>
-      <c r="BU6">
-        <v>1</v>
-      </c>
-      <c r="BV6">
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2008,27 +2041,6 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
       <c r="Q7">
         <v>1</v>
       </c>
@@ -2113,30 +2125,33 @@
       <c r="AR7">
         <v>1</v>
       </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
-      <c r="BE7">
-        <v>1</v>
-      </c>
-      <c r="BF7">
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
         <v>1</v>
       </c>
       <c r="BG7">
         <v>1</v>
       </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
       <c r="BI7">
         <v>1</v>
       </c>
@@ -2155,6 +2170,9 @@
       <c r="BN7">
         <v>1</v>
       </c>
+      <c r="BP7">
+        <v>1</v>
+      </c>
       <c r="BQ7">
         <v>1</v>
       </c>
@@ -2170,11 +2188,26 @@
       <c r="BU7">
         <v>1</v>
       </c>
-      <c r="BV7">
+      <c r="BX7">
+        <v>1</v>
+      </c>
+      <c r="BY7">
+        <v>1</v>
+      </c>
+      <c r="BZ7">
+        <v>1</v>
+      </c>
+      <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2200,44 +2233,26 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -2293,47 +2308,47 @@
       <c r="AQ8">
         <v>1</v>
       </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
+      <c r="AS8">
+        <v>1</v>
+      </c>
+      <c r="AT8">
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>1</v>
+      </c>
+      <c r="AV8">
+        <v>1</v>
+      </c>
+      <c r="AW8">
+        <v>1</v>
+      </c>
+      <c r="AX8">
+        <v>1</v>
+      </c>
+      <c r="AY8">
         <v>0</v>
       </c>
       <c r="BG8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN8">
         <v>1</v>
@@ -2362,8 +2377,29 @@
       <c r="BV8">
         <v>1</v>
       </c>
+      <c r="BW8">
+        <v>1</v>
+      </c>
+      <c r="BX8">
+        <v>1</v>
+      </c>
+      <c r="BY8">
+        <v>1</v>
+      </c>
+      <c r="BZ8">
+        <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2392,27 +2428,6 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
       <c r="Q9">
         <v>1</v>
       </c>
@@ -2477,64 +2492,67 @@
         <v>1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
       </c>
       <c r="BI9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN9">
         <v>1</v>
@@ -2557,11 +2575,29 @@
       <c r="BU9">
         <v>1</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
+        <v>1</v>
+      </c>
+      <c r="BX9">
+        <v>1</v>
+      </c>
+      <c r="BY9">
+        <v>1</v>
+      </c>
+      <c r="BZ9">
+        <v>1</v>
+      </c>
+      <c r="CA9">
+        <v>1</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2590,27 +2626,6 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
         <v>1</v>
       </c>
@@ -2785,8 +2800,29 @@
       <c r="BV10">
         <v>1</v>
       </c>
+      <c r="BW10">
+        <v>1</v>
+      </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
+      <c r="BY10">
+        <v>1</v>
+      </c>
+      <c r="BZ10">
+        <v>1</v>
+      </c>
+      <c r="CA10">
+        <v>1</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2815,27 +2851,6 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
       <c r="Q11">
         <v>1</v>
       </c>
@@ -2920,25 +2935,25 @@
       <c r="AR11">
         <v>1</v>
       </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <v>1</v>
-      </c>
-      <c r="BB11">
-        <v>1</v>
-      </c>
-      <c r="BC11">
-        <v>1</v>
-      </c>
-      <c r="BD11">
-        <v>1</v>
-      </c>
-      <c r="BE11">
-        <v>1</v>
-      </c>
-      <c r="BF11">
+      <c r="AS11">
+        <v>1</v>
+      </c>
+      <c r="AT11">
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>1</v>
+      </c>
+      <c r="AV11">
+        <v>1</v>
+      </c>
+      <c r="AW11">
+        <v>1</v>
+      </c>
+      <c r="AX11">
+        <v>1</v>
+      </c>
+      <c r="AY11">
         <v>1</v>
       </c>
       <c r="BG11">
@@ -2965,6 +2980,12 @@
       <c r="BN11">
         <v>1</v>
       </c>
+      <c r="BO11">
+        <v>1</v>
+      </c>
+      <c r="BP11">
+        <v>1</v>
+      </c>
       <c r="BQ11">
         <v>1</v>
       </c>
@@ -2980,77 +3001,93 @@
       <c r="BU11">
         <v>1</v>
       </c>
-      <c r="BV11">
+      <c r="BX11">
+        <v>1</v>
+      </c>
+      <c r="BY11">
+        <v>1</v>
+      </c>
+      <c r="BZ11">
+        <v>1</v>
+      </c>
+      <c r="CA11">
+        <v>1</v>
+      </c>
+      <c r="CB11">
+        <v>1</v>
+      </c>
+      <c r="CC11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AZ1:BF1"/>
-    <mergeCell ref="AE1:AK1"/>
+  <mergeCells count="9">
+    <mergeCell ref="BG1:BM1"/>
     <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="AS1:AY1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="J1:P1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
-    <mergeCell ref="AS1:AY1"/>
+    <mergeCell ref="AE1:AK1"/>
+    <mergeCell ref="AZ1:BF1"/>
+    <mergeCell ref="J1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="BW3:XFD1048576">
+  <conditionalFormatting sqref="CD3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:I1048576">
+  <conditionalFormatting sqref="C3:P1048576">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:P1048576">
+  <conditionalFormatting sqref="Q3:W1048576">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:AK1048576">
+  <conditionalFormatting sqref="X3:AR1048576">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL3:BF1048576">
+  <conditionalFormatting sqref="AS3:BM1048576">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG3:BH1048576">
+  <conditionalFormatting sqref="BN3:BO1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI3:BL1048576">
+  <conditionalFormatting sqref="BP3:BS1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM3:BR1048576">
+  <conditionalFormatting sqref="BT3:BY1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BS3:BS1048576">
+  <conditionalFormatting sqref="BZ3:BZ1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT3:BT1048576">
+  <conditionalFormatting sqref="CA3:CA1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU3:BU1048576">
+  <conditionalFormatting sqref="CB3:CB1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BV3:BV1048576">
+  <conditionalFormatting sqref="CC3:CC1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1019,7 +1019,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY14" sqref="AY14"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1166,7 @@
     <row r="2" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2603,7 +2603,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2624,6 +2624,27 @@
         <v>1</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>Griewangk</t>
+  </si>
+  <si>
+    <t>InvertedRosenbrock</t>
   </si>
 </sst>
 </file>
@@ -1013,23 +1016,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC11"/>
+  <dimension ref="A1:CD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="BN14" sqref="BN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="81" width="2.7109375" customWidth="1"/>
+    <col min="3" max="82" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:82" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1124,46 +1127,49 @@
         <v>33</v>
       </c>
       <c r="BQ1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
         <v>482</v>
@@ -1397,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="CA2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB2" s="1">
         <v>1</v>
@@ -1405,13 +1411,16 @@
       <c r="CC2" s="1">
         <v>1</v>
       </c>
+      <c r="CD2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:YZ3)</f>
+        <f>SUM(C3:ZA3)</f>
         <v>63</v>
       </c>
       <c r="C3">
@@ -1591,9 +1600,6 @@
       <c r="BP3">
         <v>1</v>
       </c>
-      <c r="BQ3">
-        <v>1</v>
-      </c>
       <c r="BR3">
         <v>1</v>
       </c>
@@ -1606,7 +1612,7 @@
       <c r="BU3">
         <v>1</v>
       </c>
-      <c r="BX3">
+      <c r="BV3">
         <v>1</v>
       </c>
       <c r="BY3">
@@ -1624,13 +1630,16 @@
       <c r="CC3">
         <v>1</v>
       </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:YZ4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZA4)</f>
         <v>60</v>
       </c>
       <c r="C4">
@@ -1786,9 +1795,6 @@
       <c r="BP4">
         <v>1</v>
       </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
       <c r="BR4">
         <v>1</v>
       </c>
@@ -1798,10 +1804,10 @@
       <c r="BT4">
         <v>1</v>
       </c>
-      <c r="BX4">
-        <v>1</v>
-      </c>
-      <c r="BZ4">
+      <c r="BU4">
+        <v>1</v>
+      </c>
+      <c r="BY4">
         <v>1</v>
       </c>
       <c r="CA4">
@@ -1813,8 +1819,11 @@
       <c r="CC4">
         <v>1</v>
       </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1984,9 +1993,6 @@
       <c r="BP6">
         <v>1</v>
       </c>
-      <c r="BQ6">
-        <v>1</v>
-      </c>
       <c r="BR6">
         <v>1</v>
       </c>
@@ -1996,10 +2002,10 @@
       <c r="BT6">
         <v>1</v>
       </c>
-      <c r="BX6">
-        <v>1</v>
-      </c>
-      <c r="BZ6">
+      <c r="BU6">
+        <v>1</v>
+      </c>
+      <c r="BY6">
         <v>1</v>
       </c>
       <c r="CA6">
@@ -2011,8 +2017,11 @@
       <c r="CC6">
         <v>1</v>
       </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2173,9 +2182,6 @@
       <c r="BP7">
         <v>1</v>
       </c>
-      <c r="BQ7">
-        <v>1</v>
-      </c>
       <c r="BR7">
         <v>1</v>
       </c>
@@ -2188,7 +2194,7 @@
       <c r="BU7">
         <v>1</v>
       </c>
-      <c r="BX7">
+      <c r="BV7">
         <v>1</v>
       </c>
       <c r="BY7">
@@ -2206,8 +2212,11 @@
       <c r="CC7">
         <v>1</v>
       </c>
+      <c r="CD7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2359,9 +2368,6 @@
       <c r="BP8">
         <v>1</v>
       </c>
-      <c r="BQ8">
-        <v>1</v>
-      </c>
       <c r="BR8">
         <v>1</v>
       </c>
@@ -2398,8 +2404,11 @@
       <c r="CC8">
         <v>1</v>
       </c>
+      <c r="CD8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2560,9 +2569,6 @@
       <c r="BP9">
         <v>1</v>
       </c>
-      <c r="BQ9">
-        <v>1</v>
-      </c>
       <c r="BR9">
         <v>1</v>
       </c>
@@ -2575,7 +2581,7 @@
       <c r="BU9">
         <v>1</v>
       </c>
-      <c r="BW9">
+      <c r="BV9">
         <v>1</v>
       </c>
       <c r="BX9">
@@ -2596,8 +2602,11 @@
       <c r="CC9">
         <v>1</v>
       </c>
+      <c r="CD9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2803,9 +2812,6 @@
       <c r="BP10">
         <v>1</v>
       </c>
-      <c r="BQ10">
-        <v>1</v>
-      </c>
       <c r="BR10">
         <v>1</v>
       </c>
@@ -2842,8 +2848,11 @@
       <c r="CC10">
         <v>1</v>
       </c>
+      <c r="CD10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3007,9 +3016,6 @@
       <c r="BP11">
         <v>1</v>
       </c>
-      <c r="BQ11">
-        <v>1</v>
-      </c>
       <c r="BR11">
         <v>1</v>
       </c>
@@ -3022,7 +3028,7 @@
       <c r="BU11">
         <v>1</v>
       </c>
-      <c r="BX11">
+      <c r="BV11">
         <v>1</v>
       </c>
       <c r="BY11">
@@ -3038,6 +3044,9 @@
         <v>1</v>
       </c>
       <c r="CC11">
+        <v>1</v>
+      </c>
+      <c r="CD11">
         <v>1</v>
       </c>
     </row>
@@ -3053,7 +3062,7 @@
     <mergeCell ref="AZ1:BF1"/>
     <mergeCell ref="J1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="CD3:XFD1048576">
+  <conditionalFormatting sqref="CE3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3083,32 +3092,32 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP3:BS1048576">
+  <conditionalFormatting sqref="BP3:BT1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BT3:BY1048576">
+  <conditionalFormatting sqref="BU3:BZ1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BZ3:BZ1048576">
+  <conditionalFormatting sqref="CA3:CA1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA3:CA1048576">
+  <conditionalFormatting sqref="CB3:CB1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB3:CB1048576">
+  <conditionalFormatting sqref="CC3:CC1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC3:CC1048576">
+  <conditionalFormatting sqref="CD3:CD1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1022,7 +1022,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BN14" sqref="BN14"/>
+      <selection pane="bottomRight" activeCell="BQ11" sqref="BQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1172,7 @@
     <row r="2" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZA3)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1598,6 +1598,9 @@
         <v>1</v>
       </c>
       <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
         <v>1</v>
       </c>
       <c r="BR3">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>InvertedRosenbrock</t>
+  </si>
+  <si>
+    <t>Алгоритм</t>
   </si>
 </sst>
 </file>
@@ -1019,10 +1022,10 @@
   <dimension ref="A1:CD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AH3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BQ11" sqref="BQ11"/>
+      <selection pane="bottomRight" activeCell="BN11" sqref="BN11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,9 +1173,12 @@
       </c>
     </row>
     <row r="2" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1643,7 +1649,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZA4)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1796,6 +1802,9 @@
         <v>1</v>
       </c>
       <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
         <v>1</v>
       </c>
       <c r="BR4">
@@ -2030,7 +2039,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2183,6 +2192,9 @@
         <v>1</v>
       </c>
       <c r="BP7">
+        <v>1</v>
+      </c>
+      <c r="BQ7">
         <v>1</v>
       </c>
       <c r="BR7">
@@ -2225,7 +2237,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2369,6 +2381,9 @@
         <v>1</v>
       </c>
       <c r="BP8">
+        <v>1</v>
+      </c>
+      <c r="BQ8">
         <v>1</v>
       </c>
       <c r="BR8">
@@ -2417,7 +2432,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2570,6 +2585,9 @@
         <v>1</v>
       </c>
       <c r="BP9">
+        <v>1</v>
+      </c>
+      <c r="BQ9">
         <v>1</v>
       </c>
       <c r="BR9">
@@ -2861,7 +2879,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3017,6 +3035,9 @@
         <v>1</v>
       </c>
       <c r="BP11">
+        <v>1</v>
+      </c>
+      <c r="BQ11">
         <v>1</v>
       </c>
       <c r="BR11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Алгоритм</t>
+  </si>
+  <si>
+    <t>GaussianQuartic</t>
   </si>
 </sst>
 </file>
@@ -1019,23 +1022,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD11"/>
+  <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Z3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BN11" sqref="BN11"/>
+      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="82" width="2.7109375" customWidth="1"/>
+    <col min="3" max="89" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:89" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1049,7 +1052,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -1058,7 +1061,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1067,7 +1070,7 @@
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
       <c r="X1" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Y1" s="5"/>
       <c r="Z1" s="5"/>
@@ -1076,7 +1079,7 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
@@ -1085,7 +1088,7 @@
       <c r="AJ1" s="5"/>
       <c r="AK1" s="5"/>
       <c r="AL1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM1" s="5"/>
       <c r="AN1" s="5"/>
@@ -1094,7 +1097,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -1103,7 +1106,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
@@ -1112,7 +1115,7 @@
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
       <c r="BG1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BH1" s="5"/>
       <c r="BI1" s="5"/>
@@ -1120,59 +1123,68 @@
       <c r="BK1" s="5"/>
       <c r="BL1" s="5"/>
       <c r="BM1" s="5"/>
-      <c r="BN1" s="3" t="s">
+      <c r="BN1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO1" s="5"/>
+      <c r="BP1" s="5"/>
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="5"/>
+      <c r="BT1" s="5"/>
+      <c r="BU1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1373,22 +1385,22 @@
         <v>2</v>
       </c>
       <c r="BO2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BQ2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BR2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BS2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="BT2" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="BU2" s="1">
         <v>2</v>
@@ -1412,21 +1424,42 @@
         <v>2</v>
       </c>
       <c r="CB2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CD2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CE2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CF2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CG2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CJ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CK2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:ZA3)</f>
+        <f>SUM(C3:ZH3)</f>
         <v>64</v>
       </c>
       <c r="C3">
@@ -1450,27 +1483,6 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
       <c r="X3">
         <v>1</v>
       </c>
@@ -1556,46 +1568,46 @@
         <v>1</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
         <v>1</v>
@@ -1624,6 +1636,12 @@
       <c r="BV3">
         <v>1</v>
       </c>
+      <c r="BW3">
+        <v>1</v>
+      </c>
+      <c r="BX3">
+        <v>1</v>
+      </c>
       <c r="BY3">
         <v>1</v>
       </c>
@@ -1639,16 +1657,31 @@
       <c r="CC3">
         <v>1</v>
       </c>
-      <c r="CD3">
+      <c r="CF3">
+        <v>1</v>
+      </c>
+      <c r="CG3">
+        <v>1</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZA4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZH4)</f>
         <v>61</v>
       </c>
       <c r="C4">
@@ -1672,27 +1705,6 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
       <c r="X4">
         <v>1</v>
       </c>
@@ -1777,30 +1789,33 @@
       <c r="AY4">
         <v>1</v>
       </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>1</v>
-      </c>
-      <c r="BM4">
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
         <v>1</v>
       </c>
       <c r="BN4">
         <v>1</v>
       </c>
+      <c r="BO4">
+        <v>1</v>
+      </c>
       <c r="BP4">
         <v>1</v>
       </c>
@@ -1819,23 +1834,41 @@
       <c r="BU4">
         <v>1</v>
       </c>
+      <c r="BW4">
+        <v>1</v>
+      </c>
+      <c r="BX4">
+        <v>1</v>
+      </c>
       <c r="BY4">
         <v>1</v>
       </c>
+      <c r="BZ4">
+        <v>1</v>
+      </c>
       <c r="CA4">
         <v>1</v>
       </c>
       <c r="CB4">
         <v>1</v>
       </c>
-      <c r="CC4">
-        <v>1</v>
-      </c>
-      <c r="CD4">
+      <c r="CF4">
+        <v>1</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>1</v>
+      </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1865,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1894,27 +1927,6 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1</v>
-      </c>
       <c r="X6">
         <v>1</v>
       </c>
@@ -1999,41 +2011,62 @@
       <c r="AY6">
         <v>1</v>
       </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BP6">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6">
-        <v>1</v>
-      </c>
-      <c r="BT6">
+      <c r="AZ6">
+        <v>1</v>
+      </c>
+      <c r="BA6">
+        <v>1</v>
+      </c>
+      <c r="BB6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+      <c r="BF6">
         <v>1</v>
       </c>
       <c r="BU6">
         <v>1</v>
       </c>
+      <c r="BW6">
+        <v>1</v>
+      </c>
       <c r="BY6">
         <v>1</v>
       </c>
+      <c r="BZ6">
+        <v>1</v>
+      </c>
       <c r="CA6">
         <v>1</v>
       </c>
       <c r="CB6">
         <v>1</v>
       </c>
-      <c r="CC6">
-        <v>1</v>
-      </c>
-      <c r="CD6">
+      <c r="CF6">
+        <v>1</v>
+      </c>
+      <c r="CH6">
+        <v>1</v>
+      </c>
+      <c r="CI6">
+        <v>1</v>
+      </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2062,27 +2095,6 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="W7">
-        <v>1</v>
-      </c>
       <c r="X7">
         <v>1</v>
       </c>
@@ -2167,30 +2179,33 @@
       <c r="AY7">
         <v>1</v>
       </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
         <v>1</v>
       </c>
       <c r="BN7">
         <v>1</v>
       </c>
+      <c r="BO7">
+        <v>1</v>
+      </c>
       <c r="BP7">
         <v>1</v>
       </c>
@@ -2209,7 +2224,10 @@
       <c r="BU7">
         <v>1</v>
       </c>
-      <c r="BV7">
+      <c r="BW7">
+        <v>1</v>
+      </c>
+      <c r="BX7">
         <v>1</v>
       </c>
       <c r="BY7">
@@ -2227,11 +2245,26 @@
       <c r="CC7">
         <v>1</v>
       </c>
-      <c r="CD7">
+      <c r="CF7">
+        <v>1</v>
+      </c>
+      <c r="CG7">
+        <v>1</v>
+      </c>
+      <c r="CH7">
+        <v>1</v>
+      </c>
+      <c r="CI7">
+        <v>1</v>
+      </c>
+      <c r="CJ7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2257,44 +2290,26 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2350,50 +2365,47 @@
       <c r="AX8">
         <v>1</v>
       </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
+      <c r="AZ8">
+        <v>1</v>
+      </c>
+      <c r="BA8">
+        <v>1</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>1</v>
+      </c>
+      <c r="BD8">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>1</v>
+      </c>
+      <c r="BF8">
         <v>0</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU8">
         <v>1</v>
@@ -2425,8 +2437,29 @@
       <c r="CD8">
         <v>1</v>
       </c>
+      <c r="CE8">
+        <v>1</v>
+      </c>
+      <c r="CF8">
+        <v>1</v>
+      </c>
+      <c r="CG8">
+        <v>1</v>
+      </c>
+      <c r="CH8">
+        <v>1</v>
+      </c>
+      <c r="CI8">
+        <v>1</v>
+      </c>
+      <c r="CJ8">
+        <v>1</v>
+      </c>
+      <c r="CK8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2455,27 +2488,6 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
       <c r="X9">
         <v>1</v>
       </c>
@@ -2540,69 +2552,72 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
+        <v>1</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BD9">
+        <v>0</v>
+      </c>
+      <c r="BE9">
+        <v>0</v>
+      </c>
+      <c r="BF9">
         <v>0</v>
       </c>
       <c r="BN9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
       </c>
       <c r="BP9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU9">
         <v>1</v>
       </c>
-      <c r="BV9">
+      <c r="BW9">
         <v>1</v>
       </c>
       <c r="BX9">
@@ -2623,11 +2638,29 @@
       <c r="CC9">
         <v>1</v>
       </c>
-      <c r="CD9">
+      <c r="CE9">
+        <v>1</v>
+      </c>
+      <c r="CF9">
+        <v>1</v>
+      </c>
+      <c r="CG9">
+        <v>1</v>
+      </c>
+      <c r="CH9">
+        <v>1</v>
+      </c>
+      <c r="CI9">
+        <v>1</v>
+      </c>
+      <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2656,27 +2689,6 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
       <c r="Q10">
         <v>1</v>
       </c>
@@ -2833,6 +2845,9 @@
       <c r="BP10">
         <v>1</v>
       </c>
+      <c r="BQ10">
+        <v>1</v>
+      </c>
       <c r="BR10">
         <v>1</v>
       </c>
@@ -2851,9 +2866,6 @@
       <c r="BW10">
         <v>1</v>
       </c>
-      <c r="BX10">
-        <v>1</v>
-      </c>
       <c r="BY10">
         <v>1</v>
       </c>
@@ -2872,8 +2884,29 @@
       <c r="CD10">
         <v>1</v>
       </c>
+      <c r="CE10">
+        <v>1</v>
+      </c>
+      <c r="CF10">
+        <v>1</v>
+      </c>
+      <c r="CG10">
+        <v>1</v>
+      </c>
+      <c r="CH10">
+        <v>1</v>
+      </c>
+      <c r="CI10">
+        <v>1</v>
+      </c>
+      <c r="CJ10">
+        <v>1</v>
+      </c>
+      <c r="CK10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2902,27 +2935,6 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
       <c r="X11">
         <v>1</v>
       </c>
@@ -3007,25 +3019,25 @@
       <c r="AY11">
         <v>1</v>
       </c>
-      <c r="BG11">
-        <v>1</v>
-      </c>
-      <c r="BH11">
-        <v>1</v>
-      </c>
-      <c r="BI11">
-        <v>1</v>
-      </c>
-      <c r="BJ11">
-        <v>1</v>
-      </c>
-      <c r="BK11">
-        <v>1</v>
-      </c>
-      <c r="BL11">
-        <v>1</v>
-      </c>
-      <c r="BM11">
+      <c r="AZ11">
+        <v>1</v>
+      </c>
+      <c r="BA11">
+        <v>1</v>
+      </c>
+      <c r="BB11">
+        <v>1</v>
+      </c>
+      <c r="BC11">
+        <v>1</v>
+      </c>
+      <c r="BD11">
+        <v>1</v>
+      </c>
+      <c r="BE11">
+        <v>1</v>
+      </c>
+      <c r="BF11">
         <v>1</v>
       </c>
       <c r="BN11">
@@ -3055,6 +3067,12 @@
       <c r="BV11">
         <v>1</v>
       </c>
+      <c r="BW11">
+        <v>1</v>
+      </c>
+      <c r="BX11">
+        <v>1</v>
+      </c>
       <c r="BY11">
         <v>1</v>
       </c>
@@ -3070,78 +3088,94 @@
       <c r="CC11">
         <v>1</v>
       </c>
-      <c r="CD11">
+      <c r="CF11">
+        <v>1</v>
+      </c>
+      <c r="CG11">
+        <v>1</v>
+      </c>
+      <c r="CH11">
+        <v>1</v>
+      </c>
+      <c r="CI11">
+        <v>1</v>
+      </c>
+      <c r="CJ11">
+        <v>1</v>
+      </c>
+      <c r="CK11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="BG1:BM1"/>
-    <mergeCell ref="AL1:AR1"/>
+  <mergeCells count="10">
+    <mergeCell ref="BN1:BT1"/>
     <mergeCell ref="AS1:AY1"/>
+    <mergeCell ref="AZ1:BF1"/>
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
-    <mergeCell ref="AZ1:BF1"/>
+    <mergeCell ref="AL1:AR1"/>
+    <mergeCell ref="BG1:BM1"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="J1:P1"/>
   </mergeCells>
-  <conditionalFormatting sqref="CE3:XFD1048576">
+  <conditionalFormatting sqref="CL3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:P1048576">
+  <conditionalFormatting sqref="C3:W1048576">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:W1048576">
+  <conditionalFormatting sqref="X3:AD1048576">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X3:AR1048576">
+  <conditionalFormatting sqref="AE3:AY1048576">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS3:BM1048576">
+  <conditionalFormatting sqref="AZ3:BT1048576">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN3:BO1048576">
+  <conditionalFormatting sqref="BU3:BV1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP3:BT1048576">
+  <conditionalFormatting sqref="BW3:CA1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU3:BZ1048576">
+  <conditionalFormatting sqref="CB3:CG1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CA3:CA1048576">
+  <conditionalFormatting sqref="CH3:CH1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB3:CB1048576">
+  <conditionalFormatting sqref="CI3:CI1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC3:CC1048576">
+  <conditionalFormatting sqref="CJ3:CJ1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CD3:CD1048576">
+  <conditionalFormatting sqref="CK3:CK1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1025,10 +1025,10 @@
   <dimension ref="A1:CK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AO3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2687,6 +2687,27 @@
         <v>1</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>_MHL_StandartBinaryGeneticAlgorithm</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>GaussianQuartic</t>
+  </si>
+  <si>
+    <t>RastriginNovgorod</t>
   </si>
 </sst>
 </file>
@@ -1022,23 +1025,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CK11"/>
+  <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomRight" activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="89" width="2.7109375" customWidth="1"/>
+    <col min="3" max="96" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:96" s="3" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
@@ -1097,7 +1100,7 @@
       <c r="AQ1" s="5"/>
       <c r="AR1" s="5"/>
       <c r="AS1" s="5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="AT1" s="5"/>
       <c r="AU1" s="5"/>
@@ -1106,7 +1109,7 @@
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
       <c r="AZ1" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BA1" s="5"/>
       <c r="BB1" s="5"/>
@@ -1115,7 +1118,7 @@
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
       <c r="BG1" s="5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BH1" s="5"/>
       <c r="BI1" s="5"/>
@@ -1124,7 +1127,7 @@
       <c r="BL1" s="5"/>
       <c r="BM1" s="5"/>
       <c r="BN1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="BO1" s="5"/>
       <c r="BP1" s="5"/>
@@ -1132,59 +1135,68 @@
       <c r="BR1" s="5"/>
       <c r="BS1" s="5"/>
       <c r="BT1" s="5"/>
-      <c r="BU1" s="3" t="s">
+      <c r="BU1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV1" s="5"/>
+      <c r="BW1" s="5"/>
+      <c r="BX1" s="5"/>
+      <c r="BY1" s="5"/>
+      <c r="BZ1" s="5"/>
+      <c r="CA1" s="5"/>
+      <c r="CB1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CP1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="CJ1" s="3" t="s">
+      <c r="CQ1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CK1" s="3" t="s">
+      <c r="CR1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:89" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -1406,22 +1418,22 @@
         <v>2</v>
       </c>
       <c r="BV2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW2" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BX2" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BY2" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="CA2" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="CB2" s="1">
         <v>2</v>
@@ -1445,21 +1457,42 @@
         <v>2</v>
       </c>
       <c r="CI2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CL2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CM2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO2" s="1">
+        <v>2</v>
+      </c>
+      <c r="CP2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CQ2" s="1">
+        <v>1</v>
+      </c>
+      <c r="CR2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <f>SUM(C3:ZH3)</f>
+        <f>SUM(C3:ZO3)</f>
         <v>64</v>
       </c>
       <c r="C3">
@@ -1546,27 +1579,6 @@
       <c r="AR3">
         <v>1</v>
       </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>1</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
       <c r="AZ3">
         <v>1</v>
       </c>
@@ -1589,46 +1601,46 @@
         <v>1</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3">
         <v>1</v>
@@ -1657,6 +1669,12 @@
       <c r="CC3">
         <v>1</v>
       </c>
+      <c r="CD3">
+        <v>1</v>
+      </c>
+      <c r="CE3">
+        <v>1</v>
+      </c>
       <c r="CF3">
         <v>1</v>
       </c>
@@ -1672,16 +1690,31 @@
       <c r="CJ3">
         <v>1</v>
       </c>
-      <c r="CK3">
+      <c r="CM3">
+        <v>1</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>1</v>
+      </c>
+      <c r="CP3">
+        <v>1</v>
+      </c>
+      <c r="CQ3">
+        <v>1</v>
+      </c>
+      <c r="CR3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZH4)</f>
+        <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
         <v>61</v>
       </c>
       <c r="C4">
@@ -1768,27 +1801,6 @@
       <c r="AR4">
         <v>1</v>
       </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>1</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>1</v>
-      </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
-        <v>1</v>
-      </c>
       <c r="AZ4">
         <v>1</v>
       </c>
@@ -1810,30 +1822,33 @@
       <c r="BF4">
         <v>1</v>
       </c>
-      <c r="BN4">
-        <v>1</v>
-      </c>
-      <c r="BO4">
-        <v>1</v>
-      </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>1</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
         <v>1</v>
       </c>
       <c r="BU4">
         <v>1</v>
       </c>
+      <c r="BV4">
+        <v>1</v>
+      </c>
       <c r="BW4">
         <v>1</v>
       </c>
@@ -1852,23 +1867,41 @@
       <c r="CB4">
         <v>1</v>
       </c>
+      <c r="CD4">
+        <v>1</v>
+      </c>
+      <c r="CE4">
+        <v>1</v>
+      </c>
       <c r="CF4">
         <v>1</v>
       </c>
+      <c r="CG4">
+        <v>1</v>
+      </c>
       <c r="CH4">
         <v>1</v>
       </c>
       <c r="CI4">
         <v>1</v>
       </c>
-      <c r="CJ4">
-        <v>1</v>
-      </c>
-      <c r="CK4">
+      <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CO4">
+        <v>1</v>
+      </c>
+      <c r="CP4">
+        <v>1</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -1990,27 +2023,6 @@
       <c r="AR6">
         <v>1</v>
       </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>1</v>
-      </c>
-      <c r="AV6">
-        <v>1</v>
-      </c>
-      <c r="AW6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="AY6">
-        <v>1</v>
-      </c>
       <c r="AZ6">
         <v>1</v>
       </c>
@@ -2032,41 +2044,62 @@
       <c r="BF6">
         <v>1</v>
       </c>
-      <c r="BU6">
-        <v>1</v>
-      </c>
-      <c r="BW6">
-        <v>1</v>
-      </c>
-      <c r="BY6">
-        <v>1</v>
-      </c>
-      <c r="BZ6">
-        <v>1</v>
-      </c>
-      <c r="CA6">
+      <c r="BG6">
+        <v>1</v>
+      </c>
+      <c r="BH6">
+        <v>1</v>
+      </c>
+      <c r="BI6">
+        <v>1</v>
+      </c>
+      <c r="BJ6">
+        <v>1</v>
+      </c>
+      <c r="BK6">
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1</v>
+      </c>
+      <c r="BM6">
         <v>1</v>
       </c>
       <c r="CB6">
         <v>1</v>
       </c>
+      <c r="CD6">
+        <v>1</v>
+      </c>
       <c r="CF6">
         <v>1</v>
       </c>
+      <c r="CG6">
+        <v>1</v>
+      </c>
       <c r="CH6">
         <v>1</v>
       </c>
       <c r="CI6">
         <v>1</v>
       </c>
-      <c r="CJ6">
-        <v>1</v>
-      </c>
-      <c r="CK6">
+      <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CO6">
+        <v>1</v>
+      </c>
+      <c r="CP6">
+        <v>1</v>
+      </c>
+      <c r="CQ6">
+        <v>1</v>
+      </c>
+      <c r="CR6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2158,27 +2191,6 @@
       <c r="AR7">
         <v>1</v>
       </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
       <c r="AZ7">
         <v>1</v>
       </c>
@@ -2200,30 +2212,33 @@
       <c r="BF7">
         <v>1</v>
       </c>
-      <c r="BN7">
-        <v>1</v>
-      </c>
-      <c r="BO7">
-        <v>1</v>
-      </c>
-      <c r="BP7">
-        <v>1</v>
-      </c>
-      <c r="BQ7">
-        <v>1</v>
-      </c>
-      <c r="BR7">
-        <v>1</v>
-      </c>
-      <c r="BS7">
-        <v>1</v>
-      </c>
-      <c r="BT7">
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
         <v>1</v>
       </c>
       <c r="BU7">
         <v>1</v>
       </c>
+      <c r="BV7">
+        <v>1</v>
+      </c>
       <c r="BW7">
         <v>1</v>
       </c>
@@ -2242,7 +2257,10 @@
       <c r="CB7">
         <v>1</v>
       </c>
-      <c r="CC7">
+      <c r="CD7">
+        <v>1</v>
+      </c>
+      <c r="CE7">
         <v>1</v>
       </c>
       <c r="CF7">
@@ -2260,11 +2278,26 @@
       <c r="CJ7">
         <v>1</v>
       </c>
-      <c r="CK7">
+      <c r="CM7">
+        <v>1</v>
+      </c>
+      <c r="CN7">
+        <v>1</v>
+      </c>
+      <c r="CO7">
+        <v>1</v>
+      </c>
+      <c r="CP7">
+        <v>1</v>
+      </c>
+      <c r="CQ7">
+        <v>1</v>
+      </c>
+      <c r="CR7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2347,24 +2380,6 @@
       <c r="AQ8">
         <v>1</v>
       </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>1</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>1</v>
-      </c>
       <c r="AZ8">
         <v>1</v>
       </c>
@@ -2383,50 +2398,47 @@
       <c r="BE8">
         <v>1</v>
       </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>1</v>
+      </c>
+      <c r="BI8">
+        <v>1</v>
+      </c>
+      <c r="BJ8">
+        <v>1</v>
+      </c>
+      <c r="BK8">
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1</v>
+      </c>
+      <c r="BM8">
         <v>0</v>
       </c>
       <c r="BU8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -2458,8 +2470,29 @@
       <c r="CK8">
         <v>1</v>
       </c>
+      <c r="CL8">
+        <v>1</v>
+      </c>
+      <c r="CM8">
+        <v>1</v>
+      </c>
+      <c r="CN8">
+        <v>1</v>
+      </c>
+      <c r="CO8">
+        <v>1</v>
+      </c>
+      <c r="CP8">
+        <v>1</v>
+      </c>
+      <c r="CQ8">
+        <v>1</v>
+      </c>
+      <c r="CR8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2551,91 +2584,73 @@
       <c r="AR9">
         <v>1</v>
       </c>
-      <c r="AS9">
-        <v>1</v>
-      </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AU9">
-        <v>1</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>1</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
+      <c r="BH9">
+        <v>0</v>
+      </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BL9">
+        <v>0</v>
+      </c>
+      <c r="BM9">
         <v>0</v>
       </c>
       <c r="BU9">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="BV9">
+        <v>0</v>
       </c>
       <c r="BW9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9">
         <v>1</v>
       </c>
-      <c r="CC9">
+      <c r="CD9">
         <v>1</v>
       </c>
       <c r="CE9">
@@ -2656,11 +2671,29 @@
       <c r="CJ9">
         <v>1</v>
       </c>
-      <c r="CK9">
+      <c r="CL9">
+        <v>1</v>
+      </c>
+      <c r="CM9">
+        <v>1</v>
+      </c>
+      <c r="CN9">
+        <v>1</v>
+      </c>
+      <c r="CO9">
+        <v>1</v>
+      </c>
+      <c r="CP9">
+        <v>1</v>
+      </c>
+      <c r="CQ9">
+        <v>1</v>
+      </c>
+      <c r="CR9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2794,27 +2827,6 @@
       <c r="AR10">
         <v>1</v>
       </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>1</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>1</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
       <c r="AZ10">
         <v>1</v>
       </c>
@@ -2887,6 +2899,9 @@
       <c r="BW10">
         <v>1</v>
       </c>
+      <c r="BX10">
+        <v>1</v>
+      </c>
       <c r="BY10">
         <v>1</v>
       </c>
@@ -2905,9 +2920,6 @@
       <c r="CD10">
         <v>1</v>
       </c>
-      <c r="CE10">
-        <v>1</v>
-      </c>
       <c r="CF10">
         <v>1</v>
       </c>
@@ -2926,8 +2938,29 @@
       <c r="CK10">
         <v>1</v>
       </c>
+      <c r="CL10">
+        <v>1</v>
+      </c>
+      <c r="CM10">
+        <v>1</v>
+      </c>
+      <c r="CN10">
+        <v>1</v>
+      </c>
+      <c r="CO10">
+        <v>1</v>
+      </c>
+      <c r="CP10">
+        <v>1</v>
+      </c>
+      <c r="CQ10">
+        <v>1</v>
+      </c>
+      <c r="CR10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -3019,27 +3052,6 @@
       <c r="AR11">
         <v>1</v>
       </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>1</v>
-      </c>
-      <c r="AV11">
-        <v>1</v>
-      </c>
-      <c r="AW11">
-        <v>1</v>
-      </c>
-      <c r="AX11">
-        <v>1</v>
-      </c>
-      <c r="AY11">
-        <v>1</v>
-      </c>
       <c r="AZ11">
         <v>1</v>
       </c>
@@ -3061,25 +3073,25 @@
       <c r="BF11">
         <v>1</v>
       </c>
-      <c r="BN11">
-        <v>1</v>
-      </c>
-      <c r="BO11">
-        <v>1</v>
-      </c>
-      <c r="BP11">
-        <v>1</v>
-      </c>
-      <c r="BQ11">
-        <v>1</v>
-      </c>
-      <c r="BR11">
-        <v>1</v>
-      </c>
-      <c r="BS11">
-        <v>1</v>
-      </c>
-      <c r="BT11">
+      <c r="BG11">
+        <v>1</v>
+      </c>
+      <c r="BH11">
+        <v>1</v>
+      </c>
+      <c r="BI11">
+        <v>1</v>
+      </c>
+      <c r="BJ11">
+        <v>1</v>
+      </c>
+      <c r="BK11">
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>1</v>
+      </c>
+      <c r="BM11">
         <v>1</v>
       </c>
       <c r="BU11">
@@ -3109,6 +3121,12 @@
       <c r="CC11">
         <v>1</v>
       </c>
+      <c r="CD11">
+        <v>1</v>
+      </c>
+      <c r="CE11">
+        <v>1</v>
+      </c>
       <c r="CF11">
         <v>1</v>
       </c>
@@ -3124,24 +3142,40 @@
       <c r="CJ11">
         <v>1</v>
       </c>
-      <c r="CK11">
+      <c r="CM11">
+        <v>1</v>
+      </c>
+      <c r="CN11">
+        <v>1</v>
+      </c>
+      <c r="CO11">
+        <v>1</v>
+      </c>
+      <c r="CP11">
+        <v>1</v>
+      </c>
+      <c r="CQ11">
+        <v>1</v>
+      </c>
+      <c r="CR11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="BN1:BT1"/>
-    <mergeCell ref="AS1:AY1"/>
+  <mergeCells count="11">
+    <mergeCell ref="BU1:CA1"/>
     <mergeCell ref="AZ1:BF1"/>
+    <mergeCell ref="BG1:BM1"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="X1:AD1"/>
     <mergeCell ref="AE1:AK1"/>
     <mergeCell ref="AL1:AR1"/>
-    <mergeCell ref="BG1:BM1"/>
+    <mergeCell ref="BN1:BT1"/>
     <mergeCell ref="Q1:W1"/>
     <mergeCell ref="J1:P1"/>
+    <mergeCell ref="AS1:AY1"/>
   </mergeCells>
-  <conditionalFormatting sqref="CL3:XFD1048576">
+  <conditionalFormatting sqref="CS3:XFD1048576">
     <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3156,47 +3190,47 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE3:AY1048576">
+  <conditionalFormatting sqref="AE3:BF1048576">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3:BT1048576">
+  <conditionalFormatting sqref="BG3:CA1048576">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BU3:BV1048576">
+  <conditionalFormatting sqref="CB3:CC1048576">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BW3:CA1048576">
+  <conditionalFormatting sqref="CD3:CH1048576">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CB3:CG1048576">
+  <conditionalFormatting sqref="CI3:CN1048576">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH3:CH1048576">
+  <conditionalFormatting sqref="CO3:CO1048576">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI3:CI1048576">
+  <conditionalFormatting sqref="CP3:CP1048576">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ3:CJ1048576">
+  <conditionalFormatting sqref="CQ3:CQ1048576">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK3:CK1048576">
+  <conditionalFormatting sqref="CR3:CR1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AU6" sqref="AU6"/>
+      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2825,6 +2825,27 @@
         <v>1</v>
       </c>
       <c r="AR10">
+        <v>1</v>
+      </c>
+      <c r="AS10">
+        <v>1</v>
+      </c>
+      <c r="AT10">
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>1</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>1</v>
+      </c>
+      <c r="AY10">
         <v>1</v>
       </c>
       <c r="AZ10">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZO3)</f>
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1516,6 +1516,27 @@
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
       <c r="X3">
         <v>1</v>
       </c>
@@ -1622,25 +1643,25 @@
         <v>1</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU3">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZO3)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1709,6 +1709,12 @@
         <v>1</v>
       </c>
       <c r="CJ3">
+        <v>1</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
         <v>1</v>
       </c>
       <c r="CM3">
@@ -2126,7 +2132,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2297,6 +2303,12 @@
         <v>1</v>
       </c>
       <c r="CJ7">
+        <v>1</v>
+      </c>
+      <c r="CK7">
+        <v>1</v>
+      </c>
+      <c r="CL7">
         <v>1</v>
       </c>
       <c r="CM7">
@@ -2519,7 +2531,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2690,6 +2702,9 @@
         <v>1</v>
       </c>
       <c r="CJ9">
+        <v>1</v>
+      </c>
+      <c r="CK9">
         <v>1</v>
       </c>
       <c r="CL9">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomRight" activeCell="BW12" sqref="BW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1894,6 +1894,9 @@
       <c r="CB4">
         <v>1</v>
       </c>
+      <c r="CC4">
+        <v>1</v>
+      </c>
       <c r="CD4">
         <v>1</v>
       </c>
@@ -1912,7 +1915,19 @@
       <c r="CI4">
         <v>1</v>
       </c>
+      <c r="CJ4">
+        <v>1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>1</v>
+      </c>
       <c r="CM4">
+        <v>1</v>
+      </c>
+      <c r="CN4">
         <v>1</v>
       </c>
       <c r="CO4">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BW12" sqref="BW12"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZO3)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1517,24 +1517,45 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZO3)</f>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1538,25 +1538,25 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -1620,6 +1620,27 @@
       </c>
       <c r="AR3">
         <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>1</v>
@@ -2254,6 +2275,27 @@
       <c r="AR7">
         <v>1</v>
       </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
       <c r="AZ7">
         <v>1</v>
       </c>
@@ -2567,7 +2609,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2675,25 +2717,25 @@
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9">
         <v>0</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B3" s="1">
         <f>SUM(C3:ZO3)</f>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1622,25 +1622,25 @@
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ3">
         <v>1</v>
@@ -1807,6 +1807,27 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
       <c r="X4">
         <v>1</v>
       </c>
@@ -2189,7 +2210,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2212,6 +2233,27 @@
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
       <c r="X7">
         <v>1</v>
       </c>
@@ -2276,25 +2318,25 @@
         <v>1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ7">
         <v>1</v>
@@ -2414,7 +2456,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2435,25 +2477,22 @@
         <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>1</v>
@@ -2631,6 +2670,27 @@
       </c>
       <c r="I9">
         <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="X9">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="U19" sqref="U19"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1828,6 +1828,27 @@
       <c r="P4">
         <v>0</v>
       </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
       <c r="X4">
         <v>1</v>
       </c>
@@ -2210,7 +2231,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2234,25 +2255,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1808,25 +1808,25 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3204,6 +3204,27 @@
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
       </c>
       <c r="X11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2497,6 +2497,9 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
       <c r="X8">
         <v>1</v>
       </c>
@@ -2533,6 +2536,9 @@
       <c r="AJ8">
         <v>1</v>
       </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
       <c r="AL8">
         <v>1</v>
       </c>
@@ -2588,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="BM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU8">
         <v>0</v>
@@ -2669,7 +2675,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2819,25 +2825,25 @@
         <v>1</v>
       </c>
       <c r="BU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB9">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BE17" sqref="BE17"/>
+      <selection pane="bottomRight" activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1829,25 +1829,25 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>1</v>
@@ -2274,6 +2274,27 @@
       </c>
       <c r="P7">
         <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="X7">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AI14" sqref="AI14"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>589</v>
+        <v>612</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1912,6 +1912,27 @@
       <c r="AR4">
         <v>1</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
       <c r="AZ4">
         <v>1</v>
       </c>
@@ -2231,7 +2252,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2276,151 +2297,169 @@
         <v>1</v>
       </c>
       <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>1</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
+      </c>
+      <c r="AF7">
+        <v>1</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
+      </c>
+      <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+      <c r="AQ7">
+        <v>1</v>
+      </c>
+      <c r="AR7">
+        <v>1</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>1</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>1</v>
+      </c>
+      <c r="AX7">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <v>1</v>
+      </c>
+      <c r="AZ7">
+        <v>1</v>
+      </c>
+      <c r="BA7">
+        <v>1</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>1</v>
+      </c>
+      <c r="BD7">
+        <v>1</v>
+      </c>
+      <c r="BE7">
+        <v>1</v>
+      </c>
+      <c r="BF7">
+        <v>1</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>1</v>
+      </c>
+      <c r="BI7">
+        <v>1</v>
+      </c>
+      <c r="BJ7">
+        <v>1</v>
+      </c>
+      <c r="BK7">
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>1</v>
+      </c>
+      <c r="BM7">
+        <v>1</v>
+      </c>
+      <c r="BN7">
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="BO7">
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="BP7">
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="BQ7">
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="BR7">
         <v>0</v>
       </c>
-      <c r="V7">
+      <c r="BS7">
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="BT7">
         <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>1</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>1</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>1</v>
-      </c>
-      <c r="AH7">
-        <v>1</v>
-      </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
-      <c r="AK7">
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
-      </c>
-      <c r="AM7">
-        <v>1</v>
-      </c>
-      <c r="AN7">
-        <v>1</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>1</v>
-      </c>
-      <c r="AQ7">
-        <v>1</v>
-      </c>
-      <c r="AR7">
-        <v>1</v>
-      </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>1</v>
-      </c>
-      <c r="AV7">
-        <v>1</v>
-      </c>
-      <c r="AW7">
-        <v>1</v>
-      </c>
-      <c r="AX7">
-        <v>1</v>
-      </c>
-      <c r="AY7">
-        <v>1</v>
-      </c>
-      <c r="AZ7">
-        <v>1</v>
-      </c>
-      <c r="BA7">
-        <v>1</v>
-      </c>
-      <c r="BB7">
-        <v>1</v>
-      </c>
-      <c r="BC7">
-        <v>1</v>
-      </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
-      <c r="BE7">
-        <v>1</v>
-      </c>
-      <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>1</v>
-      </c>
-      <c r="BI7">
-        <v>1</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>1</v>
-      </c>
-      <c r="BM7">
-        <v>1</v>
       </c>
       <c r="BU7">
         <v>1</v>
@@ -2498,7 +2537,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2618,25 +2657,22 @@
         <v>1</v>
       </c>
       <c r="BU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB8">
         <v>1</v>
@@ -2696,7 +2732,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2720,88 +2756,106 @@
         <v>1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9">
+        <v>1</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
+      </c>
+      <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+      <c r="AQ9">
+        <v>1</v>
+      </c>
+      <c r="AR9">
+        <v>1</v>
+      </c>
+      <c r="AS9">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="AT9">
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="AU9">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="AV9">
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="AW9">
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="AX9">
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="AY9">
         <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-      <c r="Z9">
-        <v>1</v>
-      </c>
-      <c r="AA9">
-        <v>1</v>
-      </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>1</v>
-      </c>
-      <c r="AE9">
-        <v>1</v>
-      </c>
-      <c r="AF9">
-        <v>1</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
-      </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>1</v>
-      </c>
-      <c r="AN9">
-        <v>1</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>1</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AR9">
-        <v>1</v>
       </c>
       <c r="AZ9">
         <v>1</v>
@@ -3209,7 +3263,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3232,26 +3286,41 @@
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
+      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2441,25 +2441,25 @@
         <v>1</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU7">
         <v>1</v>
@@ -3321,6 +3321,9 @@
       </c>
       <c r="U11">
         <v>1</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
       </c>
       <c r="X11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AR3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
+      <selection pane="bottomRight" activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1913,67 +1913,88 @@
         <v>1</v>
       </c>
       <c r="AS4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>1</v>
+      </c>
+      <c r="AV4">
+        <v>1</v>
+      </c>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>1</v>
+      </c>
+      <c r="AZ4">
+        <v>1</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>1</v>
+      </c>
+      <c r="BC4">
+        <v>1</v>
+      </c>
+      <c r="BD4">
+        <v>1</v>
+      </c>
+      <c r="BE4">
+        <v>1</v>
+      </c>
+      <c r="BF4">
+        <v>1</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>1</v>
+      </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>1</v>
+      </c>
+      <c r="BM4">
+        <v>1</v>
+      </c>
+      <c r="BN4">
         <v>0</v>
       </c>
-      <c r="AT4">
+      <c r="BO4">
         <v>0</v>
       </c>
-      <c r="AU4">
+      <c r="BP4">
         <v>0</v>
       </c>
-      <c r="AV4">
+      <c r="BQ4">
         <v>0</v>
       </c>
-      <c r="AW4">
+      <c r="BR4">
         <v>0</v>
       </c>
-      <c r="AX4">
+      <c r="BS4">
         <v>0</v>
       </c>
-      <c r="AY4">
+      <c r="BT4">
         <v>0</v>
-      </c>
-      <c r="AZ4">
-        <v>1</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>1</v>
-      </c>
-      <c r="BD4">
-        <v>1</v>
-      </c>
-      <c r="BE4">
-        <v>1</v>
-      </c>
-      <c r="BF4">
-        <v>1</v>
-      </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4">
-        <v>1</v>
-      </c>
-      <c r="BI4">
-        <v>1</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>1</v>
-      </c>
-      <c r="BM4">
-        <v>1</v>
       </c>
       <c r="BU4">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AZ4" sqref="AZ4"/>
+      <selection pane="bottomRight" activeCell="BR4" sqref="BR4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1976,24 +1976,18 @@
         <v>1</v>
       </c>
       <c r="BN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR4">
-        <v>0</v>
-      </c>
-      <c r="BS4">
-        <v>0</v>
-      </c>
-      <c r="BT4">
         <v>0</v>
       </c>
       <c r="BU4">
@@ -2753,7 +2747,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2858,24 +2852,21 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">
@@ -3284,7 +3275,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3308,22 +3299,22 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -3343,7 +3334,7 @@
       <c r="U11">
         <v>1</v>
       </c>
-      <c r="W11">
+      <c r="V11">
         <v>0</v>
       </c>
       <c r="X11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BR4" sqref="BR4"/>
+      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2090,6 +2090,39 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AH9" sqref="AH9"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ref="B4:B11" si="0">SUM(C4:ZO4)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1988,7 +1988,13 @@
         <v>1</v>
       </c>
       <c r="BR4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>1</v>
       </c>
       <c r="BU4">
         <v>1</v>
@@ -2361,6 +2367,9 @@
       </c>
       <c r="V7">
         <v>1</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="X7">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2369,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>1</v>
@@ -2830,6 +2830,9 @@
       <c r="O9">
         <v>1</v>
       </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
       <c r="X9">
         <v>1</v>
       </c>
@@ -3317,7 +3320,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3377,6 +3380,9 @@
         <v>1</v>
       </c>
       <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2096,6 +2096,21 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
         <v>1</v>
       </c>
       <c r="AE5">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5"/>
+      <selection pane="bottomRight" activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2927,6 +2927,9 @@
         <v>1</v>
       </c>
       <c r="AX9">
+        <v>1</v>
+      </c>
+      <c r="AY9">
         <v>0</v>
       </c>
       <c r="AZ9">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AX14" sqref="AX14"/>
+      <selection pane="bottomRight" activeCell="AY12" sqref="AY12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -3465,6 +3465,27 @@
       </c>
       <c r="AR11">
         <v>1</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
       </c>
       <c r="AZ11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AY12" sqref="AY12"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2111,6 +2111,24 @@
         <v>1</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
         <v>1</v>
       </c>
       <c r="AE5">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2111,6 +2111,21 @@
         <v>1</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>1</v>
       </c>
       <c r="X5">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
+      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3434,7 +3434,7 @@
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>1</v>
@@ -3561,6 +3561,27 @@
       </c>
       <c r="BM11">
         <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
       </c>
       <c r="BU11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="X16" sqref="X16"/>
+      <selection pane="bottomRight" activeCell="BP15" sqref="BP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2177,6 +2177,9 @@
         <v>1</v>
       </c>
       <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="BG5">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AK3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BP15" sqref="BP15"/>
+      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2180,6 +2180,21 @@
         <v>1</v>
       </c>
       <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>1</v>
+      </c>
+      <c r="BI5">
+        <v>1</v>
+      </c>
+      <c r="BJ5">
+        <v>1</v>
+      </c>
+      <c r="BK5">
+        <v>1</v>
+      </c>
+      <c r="BL5">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AE19" sqref="AE19"/>
+      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -3025,6 +3025,27 @@
       <c r="BM9">
         <v>1</v>
       </c>
+      <c r="BN9">
+        <v>0</v>
+      </c>
+      <c r="BO9">
+        <v>0</v>
+      </c>
+      <c r="BP9">
+        <v>0</v>
+      </c>
+      <c r="BQ9">
+        <v>0</v>
+      </c>
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
       <c r="BU9">
         <v>1</v>
       </c>
@@ -3389,7 +3410,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3518,25 +3539,25 @@
         <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
+      <selection pane="bottomRight" activeCell="CA6" sqref="CA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2195,6 +2195,27 @@
         <v>1</v>
       </c>
       <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BU5">
+        <v>1</v>
+      </c>
+      <c r="BV5">
+        <v>1</v>
+      </c>
+      <c r="BW5">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>1</v>
+      </c>
+      <c r="BY5">
+        <v>1</v>
+      </c>
+      <c r="BZ5">
+        <v>1</v>
+      </c>
+      <c r="CA5">
         <v>1</v>
       </c>
     </row>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AJ3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CA6" sqref="CA6"/>
+      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2918,6 +2918,27 @@
         <v>1</v>
       </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="T18" sqref="T18"/>
+      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2195,6 +2195,24 @@
         <v>1</v>
       </c>
       <c r="BL5">
+        <v>1</v>
+      </c>
+      <c r="BN5">
+        <v>1</v>
+      </c>
+      <c r="BO5">
+        <v>1</v>
+      </c>
+      <c r="BP5">
+        <v>1</v>
+      </c>
+      <c r="BQ5">
+        <v>1</v>
+      </c>
+      <c r="BR5">
+        <v>1</v>
+      </c>
+      <c r="BS5">
         <v>1</v>
       </c>
       <c r="BU5">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BT5" sqref="BT5"/>
+      <selection pane="bottomRight" activeCell="BG5" sqref="BG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2179,6 +2179,27 @@
       <c r="AX5">
         <v>1</v>
       </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
       <c r="BG5">
         <v>1</v>
       </c>
@@ -2722,6 +2743,27 @@
       <c r="I8">
         <v>0</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
       <c r="X8">
         <v>1</v>
       </c>
@@ -3470,7 +3512,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3662,25 +3704,25 @@
         <v>1</v>
       </c>
       <c r="BN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU11">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BG5" sqref="BG5"/>
+      <selection pane="bottomRight" activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2287,6 +2287,27 @@
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
       <c r="X6">
         <v>1</v>
       </c>
@@ -2936,7 +2957,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3083,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AI19" sqref="AI19"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2161,6 +2161,27 @@
       <c r="AI5">
         <v>1</v>
       </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
       <c r="AS5">
         <v>1</v>
       </c>
@@ -2180,25 +2201,25 @@
         <v>1</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG5">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="AW8" sqref="AW8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2162,25 +2162,22 @@
         <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AW8" sqref="AW8"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2306,24 +2306,45 @@
         <v>1</v>
       </c>
       <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="R6">
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="S6">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="T6">
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="U6">
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="V6">
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1028,10 +1028,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
+      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2111,6 +2111,9 @@
         <v>1</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>1</v>
       </c>
       <c r="Q5">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1031,7 +1031,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomRight" activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -624,7 +624,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -772,7 +772,37 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1028,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AJ17" sqref="AJ17"/>
+      <selection pane="bottomRight" activeCell="BB16" sqref="BB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,6 +2287,9 @@
       <c r="BS5">
         <v>1</v>
       </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
       <c r="BU5">
         <v>1</v>
       </c>
@@ -2940,6 +2973,9 @@
       </c>
       <c r="BZ8">
         <v>1</v>
+      </c>
+      <c r="CA8">
+        <v>0</v>
       </c>
       <c r="CB8">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BB16" sqref="BB16"/>
+      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2363,25 +2363,25 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="X6" sqref="X6"/>
+      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2309,6 +2309,57 @@
         <v>1</v>
       </c>
       <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>1</v>
+      </c>
+      <c r="CD5">
+        <v>1</v>
+      </c>
+      <c r="CE5">
+        <v>1</v>
+      </c>
+      <c r="CF5">
+        <v>1</v>
+      </c>
+      <c r="CG5">
+        <v>1</v>
+      </c>
+      <c r="CH5">
+        <v>1</v>
+      </c>
+      <c r="CI5">
+        <v>1</v>
+      </c>
+      <c r="CJ5">
+        <v>1</v>
+      </c>
+      <c r="CK5">
+        <v>1</v>
+      </c>
+      <c r="CL5">
+        <v>1</v>
+      </c>
+      <c r="CM5">
+        <v>1</v>
+      </c>
+      <c r="CN5">
+        <v>1</v>
+      </c>
+      <c r="CO5">
+        <v>1</v>
+      </c>
+      <c r="CP5">
+        <v>1</v>
+      </c>
+      <c r="CQ5">
+        <v>1</v>
+      </c>
+      <c r="CR5">
         <v>1</v>
       </c>
     </row>
@@ -2318,7 +2369,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2488,12 +2539,39 @@
       <c r="BM6">
         <v>1</v>
       </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
       <c r="CB6">
         <v>1</v>
       </c>
+      <c r="CC6">
+        <v>1</v>
+      </c>
       <c r="CD6">
         <v>1</v>
       </c>
+      <c r="CE6">
+        <v>1</v>
+      </c>
       <c r="CF6">
         <v>1</v>
       </c>
@@ -2506,7 +2584,19 @@
       <c r="CI6">
         <v>1</v>
       </c>
+      <c r="CJ6">
+        <v>1</v>
+      </c>
+      <c r="CK6">
+        <v>1</v>
+      </c>
+      <c r="CL6">
+        <v>1</v>
+      </c>
       <c r="CM6">
+        <v>1</v>
+      </c>
+      <c r="CN6">
         <v>1</v>
       </c>
       <c r="CO6">
@@ -2528,7 +2618,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2762,6 +2852,9 @@
         <v>1</v>
       </c>
       <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
         <v>1</v>
       </c>
       <c r="CD7">
@@ -3035,7 +3128,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3269,6 +3362,9 @@
         <v>1</v>
       </c>
       <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
         <v>1</v>
       </c>
       <c r="CD9">
@@ -3323,7 +3419,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3563,6 +3659,9 @@
         <v>1</v>
       </c>
       <c r="CD10">
+        <v>1</v>
+      </c>
+      <c r="CE10">
         <v>1</v>
       </c>
       <c r="CF10">
@@ -3611,7 +3710,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3869,6 +3968,12 @@
         <v>1</v>
       </c>
       <c r="CJ11">
+        <v>1</v>
+      </c>
+      <c r="CK11">
+        <v>1</v>
+      </c>
+      <c r="CL11">
         <v>1</v>
       </c>
       <c r="CM11">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3048,6 +3048,27 @@
       </c>
       <c r="BM8">
         <v>1</v>
+      </c>
+      <c r="BN8">
+        <v>0</v>
+      </c>
+      <c r="BO8">
+        <v>0</v>
+      </c>
+      <c r="BP8">
+        <v>0</v>
+      </c>
+      <c r="BQ8">
+        <v>0</v>
+      </c>
+      <c r="BR8">
+        <v>0</v>
+      </c>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
       </c>
       <c r="BU8">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AV3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BT8" sqref="BT8"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2159,6 +2159,9 @@
         <v>1</v>
       </c>
       <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
         <v>1</v>
       </c>
       <c r="X5">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
+      <selection pane="bottomRight" activeCell="CB6" sqref="CB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2542,26 +2542,47 @@
       <c r="BM6">
         <v>1</v>
       </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
       <c r="BU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB6">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="CB6" sqref="CB6"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2543,16 +2543,16 @@
         <v>1</v>
       </c>
       <c r="BN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR6">
         <v>0</v>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2957,22 +2957,22 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -3074,19 +3074,19 @@
         <v>1</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS8">
         <v>0</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3218,22 +3218,22 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -3365,22 +3365,22 @@
         <v>1</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9">
         <v>0</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="BU9" sqref="BU9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2272,6 +2272,9 @@
       <c r="BL5">
         <v>1</v>
       </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
       <c r="BN5">
         <v>1</v>
       </c>
@@ -3034,6 +3037,27 @@
       <c r="AQ8">
         <v>1</v>
       </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
       <c r="AZ8">
         <v>1</v>
       </c>
@@ -3173,7 +3197,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3383,7 +3407,7 @@
         <v>1</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU9">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1058,10 +1058,10 @@
   <dimension ref="A1:CR11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="BU9" sqref="BU9"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2503,6 +2503,27 @@
       <c r="AR6">
         <v>1</v>
       </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
       <c r="AZ6">
         <v>1</v>
       </c>
@@ -2558,13 +2579,13 @@
         <v>1</v>
       </c>
       <c r="BR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU6">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2197,6 +2197,12 @@
       <c r="AI5">
         <v>1</v>
       </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
       <c r="AL5">
         <v>1</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5">
         <v>1</v>
@@ -2375,7 +2381,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2504,22 +2510,22 @@
         <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -2957,7 +2963,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3059,19 +3065,19 @@
         <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -3096,6 +3102,9 @@
       </c>
       <c r="BE8">
         <v>1</v>
+      </c>
+      <c r="BF8">
+        <v>0</v>
       </c>
       <c r="BG8">
         <v>1</v>
@@ -3218,7 +3227,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3281,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="AG14" sqref="AG14"/>
+      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2201,43 +2201,46 @@
         <v>1</v>
       </c>
       <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>1</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>1</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
         <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AM5">
-        <v>1</v>
-      </c>
-      <c r="AN5">
-        <v>1</v>
-      </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>1</v>
-      </c>
-      <c r="AQ5">
-        <v>1</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>1</v>
-      </c>
-      <c r="AV5">
-        <v>1</v>
-      </c>
-      <c r="AW5">
-        <v>1</v>
-      </c>
-      <c r="AX5">
-        <v>1</v>
       </c>
       <c r="AZ5">
         <v>1</v>
@@ -2381,7 +2384,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2528,7 +2531,7 @@
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ6">
         <v>1</v>
@@ -3005,6 +3008,27 @@
         <v>1</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">

--- a/Список проведенных исследований.xlsx
+++ b/Список проведенных исследований.xlsx
@@ -1061,7 +1061,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="Z9" sqref="Z9"/>
+      <selection pane="bottomRight" activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B2" s="1">
         <f>SUM(B3:B11)</f>
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2221,6 +2221,9 @@
       <c r="AQ5">
         <v>1</v>
       </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
       <c r="AS5">
         <v>1</v>
       </c>
@@ -2240,7 +2243,7 @@
         <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ5">
         <v>1</v>
@@ -2966,7 +2969,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3008,19 +3011,19 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -3167,7 +3170,7 @@
         <v>1</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT8">
         <v>0</v>
